--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_without_Don\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E60FA4-A99E-42A1-BC0F-165A410D9B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED20D2-47C7-4DD7-9868-6AC9E2848C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$573</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$512</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$574</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$513</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1012">
   <si>
     <t>1С</t>
   </si>
@@ -3072,6 +3072,9 @@
   </si>
   <si>
     <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг XXL  Поком</t>
   </si>
 </sst>
 </file>
@@ -6327,11 +6330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13012,7 +13015,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>408</v>
+        <v>1011</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>890</v>
@@ -13036,7 +13039,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>890</v>
@@ -13060,7 +13063,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>892</v>
+        <v>328</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>890</v>
@@ -13084,7 +13087,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>1010</v>
+        <v>892</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>890</v>
@@ -13108,7 +13111,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>327</v>
+        <v>1010</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>890</v>
@@ -13132,22 +13135,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>333</v>
+        <v>890</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>334</v>
+        <v>891</v>
       </c>
       <c r="D282" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E282" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>335</v>
+        <v>892</v>
       </c>
       <c r="G282" s="1">
         <f>VLOOKUP(E282,[1]Лист1!$D:$M,10,0)</f>
@@ -13156,7 +13159,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>333</v>
@@ -13180,7 +13183,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>332</v>
+        <v>460</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>333</v>
@@ -13204,22 +13207,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>590</v>
+        <v>333</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>591</v>
+        <v>334</v>
       </c>
       <c r="D285" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E285" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>592</v>
+        <v>335</v>
       </c>
       <c r="G285" s="1">
         <f>VLOOKUP(E285,[1]Лист1!$D:$M,10,0)</f>
@@ -13228,7 +13231,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>590</v>
@@ -13252,22 +13255,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D287" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E287" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
@@ -13276,7 +13279,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>936</v>
+        <v>431</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>340</v>
@@ -13300,7 +13303,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>339</v>
+        <v>936</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>340</v>
@@ -13324,31 +13327,31 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>641</v>
+        <v>339</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>353</v>
+        <v>560</v>
       </c>
       <c r="D290" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E290" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>354</v>
+        <v>561</v>
       </c>
       <c r="G290" s="1">
         <f>VLOOKUP(E290,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>354</v>
+        <v>641</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>352</v>
@@ -13372,7 +13375,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>352</v>
@@ -13396,22 +13399,22 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D293" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E293" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
@@ -13420,46 +13423,46 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D294" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E294" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D295" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E295" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G295" s="1">
         <f>VLOOKUP(E295,[1]Лист1!$D:$M,10,0)</f>
@@ -13468,7 +13471,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>368</v>
@@ -13492,7 +13495,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>368</v>
@@ -13516,55 +13519,55 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D298" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E298" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G298" s="1">
         <f>VLOOKUP(E298,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D299" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E299" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G299" s="1">
         <f>VLOOKUP(E299,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>375</v>
@@ -13588,7 +13591,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>375</v>
@@ -13612,7 +13615,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>375</v>
@@ -13636,22 +13639,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>784</v>
+        <v>375</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>785</v>
+        <v>376</v>
       </c>
       <c r="D303" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E303" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>786</v>
+        <v>377</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(E303,[1]Лист1!$D:$M,10,0)</f>
@@ -13660,7 +13663,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>784</v>
@@ -13684,7 +13687,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>784</v>
@@ -13708,7 +13711,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>784</v>
@@ -13732,22 +13735,22 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>435</v>
+        <v>784</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>436</v>
+        <v>785</v>
       </c>
       <c r="D307" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E307" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>437</v>
+        <v>786</v>
       </c>
       <c r="G307" s="1">
         <f>VLOOKUP(E307,[1]Лист1!$D:$M,10,0)</f>
@@ -13756,7 +13759,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>435</v>
@@ -13780,22 +13783,22 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D309" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E309" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G309" s="1">
         <f>VLOOKUP(E309,[1]Лист1!$D:$M,10,0)</f>
@@ -13804,22 +13807,22 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D310" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E310" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G310" s="1">
         <f>VLOOKUP(E310,[1]Лист1!$D:$M,10,0)</f>
@@ -13828,30 +13831,31 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="D311" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E311" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="G311" s="1">
+        <f>VLOOKUP(E311,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>463</v>
@@ -13874,7 +13878,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>463</v>
@@ -13897,22 +13901,22 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D314" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E314" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G314" s="1">
         <v>180</v>
@@ -13920,7 +13924,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>466</v>
@@ -13943,7 +13947,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>466</v>
@@ -13966,28 +13970,30 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="D317" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E317" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G317" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="G317" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>469</v>
@@ -14008,51 +14014,49 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D319" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E319" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D320" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E320" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G320" s="1">
-        <v>180</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>483</v>
@@ -14073,24 +14077,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D322" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E322" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G322" s="1">
         <v>180</v>
@@ -14098,7 +14102,7 @@
     </row>
     <row r="323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>487</v>
@@ -14121,7 +14125,7 @@
     </row>
     <row r="324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>487</v>
@@ -14144,7 +14148,7 @@
     </row>
     <row r="325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>487</v>
@@ -14165,24 +14169,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B326" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="C326" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="D326" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E326" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F326" s="15" t="s">
-        <v>493</v>
+        <v>486</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D326" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E326" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="G326" s="1">
         <v>180</v>
@@ -14190,7 +14194,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>491</v>
@@ -14213,7 +14217,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>491</v>
@@ -14236,7 +14240,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>491</v>
@@ -14259,30 +14263,30 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D330" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E330" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F330" s="5" t="s">
-        <v>507</v>
+        <v>490</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D330" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E330" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F330" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="G330" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>505</v>
@@ -14305,30 +14309,30 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D332" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E332" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G332" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>510</v>
@@ -14351,28 +14355,30 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D334" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E334" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="G334" s="1"/>
+        <v>509</v>
+      </c>
+      <c r="G334" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>516</v>
@@ -14393,7 +14399,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>516</v>
@@ -14414,7 +14420,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>516</v>
@@ -14435,73 +14441,73 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D338" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E338" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>318</v>
+        <v>520</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>319</v>
+        <v>521</v>
       </c>
       <c r="D339" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E339" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G339" s="1">
-        <f>VLOOKUP(E339,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>529</v>
+        <v>318</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>530</v>
+        <v>319</v>
       </c>
       <c r="D340" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E340" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G340" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="G340" s="1">
+        <f>VLOOKUP(E340,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>529</v>
@@ -14522,28 +14528,28 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D342" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E342" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>534</v>
@@ -14564,7 +14570,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>534</v>
@@ -14585,28 +14591,28 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D345" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E345" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>633</v>
+        <v>564</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>537</v>
@@ -14627,7 +14633,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>537</v>
@@ -14648,91 +14654,91 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C348" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D348" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E348" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F348" s="15" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D348" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E348" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B349" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B349" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F349" s="5" t="s">
-        <v>606</v>
+      <c r="F349" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="B350" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C350" s="12" t="s">
+      <c r="C350" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D350" s="13">
+      <c r="D350" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E350" s="14">
+      <c r="E350" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F350" s="15" t="s">
-        <v>539</v>
+      <c r="F350" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D351" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E351" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F351" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D351" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E351" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F351" s="15" t="s">
+        <v>539</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>543</v>
@@ -14753,7 +14759,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>543</v>
@@ -14774,28 +14780,28 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1007</v>
+        <v>543</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1008</v>
+        <v>544</v>
       </c>
       <c r="D354" s="4">
-        <v>4301135824</v>
+        <v>4301070993</v>
       </c>
       <c r="E354" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>1009</v>
+        <v>542</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>765</v>
+        <v>578</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1007</v>
@@ -14816,7 +14822,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>552</v>
+        <v>765</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1007</v>
@@ -14837,91 +14843,91 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>571</v>
+        <v>1007</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>572</v>
+        <v>1008</v>
       </c>
       <c r="D357" s="4">
-        <v>4301132104</v>
+        <v>4301135824</v>
       </c>
       <c r="E357" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>573</v>
+        <v>1009</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D358" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E358" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="D359" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E359" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D360" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E360" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>599</v>
@@ -14942,7 +14948,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>599</v>
@@ -14963,7 +14969,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>599</v>
@@ -14984,28 +14990,28 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D364" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E364" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>608</v>
@@ -15026,7 +15032,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>608</v>
@@ -15047,28 +15053,28 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>683</v>
+        <v>607</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D367" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E367" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>612</v>
@@ -15089,7 +15095,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>614</v>
+        <v>734</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>612</v>
@@ -15110,7 +15116,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>612</v>
@@ -15131,28 +15137,28 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D371" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E371" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>616</v>
@@ -15173,7 +15179,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>618</v>
+        <v>677</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>616</v>
@@ -15194,7 +15200,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>616</v>
@@ -15215,7 +15221,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>615</v>
+        <v>713</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>616</v>
@@ -15236,28 +15242,28 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>663</v>
+        <v>615</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D376" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E376" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>620</v>
@@ -15278,7 +15284,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>620</v>
@@ -15299,7 +15305,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>622</v>
+        <v>678</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>620</v>
@@ -15320,7 +15326,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>620</v>
@@ -15341,28 +15347,28 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D381" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E381" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>624</v>
@@ -15383,7 +15389,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>626</v>
+        <v>679</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>624</v>
@@ -15404,7 +15410,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>714</v>
+        <v>626</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>624</v>
@@ -15425,7 +15431,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>624</v>
@@ -15446,28 +15452,28 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D386" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E386" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>628</v>
@@ -15488,7 +15494,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>628</v>
@@ -15509,7 +15515,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>628</v>
@@ -15530,7 +15536,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>628</v>
@@ -15551,28 +15557,28 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="D391" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E391" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>647</v>
@@ -15593,7 +15599,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>647</v>
@@ -15614,28 +15620,28 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="D394" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E394" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>658</v>
@@ -15656,7 +15662,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>658</v>
@@ -15677,28 +15683,28 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D397" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E397" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>716</v>
+        <v>660</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>661</v>
@@ -15719,7 +15725,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>661</v>
@@ -15740,28 +15746,28 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="D400" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E400" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>668</v>
@@ -15782,7 +15788,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>668</v>
@@ -15803,7 +15809,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>874</v>
+        <v>670</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>668</v>
@@ -15824,7 +15830,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>667</v>
+        <v>874</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>668</v>
@@ -15845,28 +15851,28 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D405" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E405" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>672</v>
@@ -15887,7 +15893,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>672</v>
@@ -15908,28 +15914,28 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D408" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E408" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>733</v>
+        <v>687</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>685</v>
@@ -15950,7 +15956,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>685</v>
@@ -15971,30 +15977,28 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>774</v>
+        <v>684</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>894</v>
+        <v>685</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>895</v>
+        <v>686</v>
       </c>
       <c r="D411" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E411" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="G411" s="1">
-        <v>180</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>868</v>
+        <v>774</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>894</v>
@@ -16017,7 +16021,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>703</v>
+        <v>868</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>894</v>
@@ -16040,28 +16044,30 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>900</v>
+        <v>703</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>706</v>
+        <v>894</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="D414" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E414" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="G414" s="1"/>
+        <v>896</v>
+      </c>
+      <c r="G414" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>705</v>
+        <v>900</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>706</v>
@@ -16082,28 +16088,28 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D416" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E416" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>710</v>
@@ -16124,7 +16130,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>710</v>
@@ -16145,7 +16151,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>710</v>
@@ -16166,28 +16172,28 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D420" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E420" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>719</v>
@@ -16208,7 +16214,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>719</v>
@@ -16229,28 +16235,28 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D423" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E423" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>722</v>
@@ -16271,30 +16277,28 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D425" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E425" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="G425" s="1">
-        <v>180</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>791</v>
+        <v>730</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>728</v>
@@ -16317,7 +16321,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>872</v>
+        <v>791</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>728</v>
@@ -16340,7 +16344,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>728</v>
@@ -16363,7 +16367,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>727</v>
+        <v>873</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>728</v>
@@ -16386,51 +16390,51 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="D430" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E430" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G430" s="1"/>
+        <v>730</v>
+      </c>
+      <c r="G430" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D431" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E431" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="G431" s="1">
-        <v>180</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>750</v>
@@ -16453,22 +16457,22 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D433" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E433" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G433" s="1">
         <v>180</v>
@@ -16476,7 +16480,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>753</v>
@@ -16499,7 +16503,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>753</v>
@@ -16522,22 +16526,22 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D436" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E436" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G436" s="1">
         <v>180</v>
@@ -16545,7 +16549,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>756</v>
@@ -16568,72 +16572,72 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D438" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E438" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G438" s="1"/>
+        <v>755</v>
+      </c>
+      <c r="G438" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D439" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E439" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>886</v>
+        <v>787</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>876</v>
+        <v>788</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>877</v>
+        <v>789</v>
       </c>
       <c r="D440" s="4">
-        <v>4301135670</v>
+        <v>4301135127</v>
       </c>
       <c r="E440" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="G440" s="1">
-        <v>180</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>876</v>
@@ -16656,7 +16660,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>876</v>
@@ -16679,7 +16683,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>876</v>
@@ -16702,28 +16706,30 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D444" s="4">
-        <v>4301071074</v>
+        <v>4301135670</v>
       </c>
       <c r="E444" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="G444" s="1"/>
+        <v>885</v>
+      </c>
+      <c r="G444" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>879</v>
@@ -16744,7 +16750,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>879</v>
@@ -16765,28 +16771,28 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
       <c r="D447" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E447" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>902</v>
@@ -16807,7 +16813,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>902</v>
@@ -16828,7 +16834,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>902</v>
@@ -16849,88 +16855,85 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D451" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E451" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D452" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E452" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>750</v>
+        <v>910</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>751</v>
+        <v>911</v>
       </c>
       <c r="D453" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E453" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>749</v>
+        <v>912</v>
       </c>
       <c r="G453" s="1"/>
-      <c r="H453" s="16" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D454" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E454" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
@@ -16939,22 +16942,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="D455" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E455" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>730</v>
+        <v>755</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
@@ -16963,22 +16966,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="D456" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E456" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
@@ -16987,22 +16990,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="D457" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E457" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
@@ -17011,22 +17014,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D458" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E458" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
@@ -17035,22 +17038,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D459" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E459" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>923</v>
+        <v>618</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
@@ -17059,22 +17062,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D460" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E460" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>630</v>
+        <v>923</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
@@ -17083,97 +17086,100 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>645</v>
+        <v>922</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>946</v>
+        <v>628</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>947</v>
+        <v>629</v>
       </c>
       <c r="D461" s="4">
-        <v>4301135760</v>
+        <v>4301071039</v>
       </c>
       <c r="E461" s="3">
-        <v>4620207491010</v>
+        <v>4607111039279</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>948</v>
+        <v>630</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>738</v>
+        <v>645</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>737</v>
+        <v>947</v>
       </c>
       <c r="D462" s="4">
-        <v>4301132190</v>
+        <v>4301135760</v>
       </c>
       <c r="E462" s="3">
-        <v>4607111036537</v>
+        <v>4620207491010</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>738</v>
+        <v>948</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>927</v>
+        <v>738</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>928</v>
+        <v>736</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>929</v>
+        <v>737</v>
       </c>
       <c r="D463" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E463" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>927</v>
+        <v>738</v>
       </c>
       <c r="G463" s="1"/>
+      <c r="H463" s="16" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D464" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E464" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>931</v>
@@ -17194,28 +17200,28 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D466" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E466" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>934</v>
@@ -17236,91 +17242,91 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D468" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E468" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B469" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D468" s="4">
+      <c r="D469" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E468" s="3">
+      <c r="E469" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F468" s="5" t="s">
+      <c r="F469" s="5" t="s">
         <v>957</v>
-      </c>
-      <c r="G468" s="1"/>
-    </row>
-    <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A469" s="10" t="s">
-        <v>959</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="D469" s="4">
-        <v>4301070962</v>
-      </c>
-      <c r="E469" s="3">
-        <v>4607111038609</v>
-      </c>
-      <c r="F469" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D470" s="4">
-        <v>4301070959</v>
+        <v>4301070962</v>
       </c>
       <c r="E470" s="3">
-        <v>4607111038616</v>
+        <v>4607111038609</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>963</v>
+        <v>859</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>964</v>
+        <v>860</v>
       </c>
       <c r="D471" s="4">
-        <v>4301071075</v>
+        <v>4301070959</v>
       </c>
       <c r="E471" s="3">
-        <v>4620207491102</v>
+        <v>4607111038616</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>965</v>
+        <v>861</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>963</v>
@@ -17339,807 +17345,807 @@
       </c>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>726</v>
+        <v>962</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>724</v>
+        <v>963</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>725</v>
+        <v>964</v>
       </c>
       <c r="D473" s="4">
-        <v>4301135574</v>
+        <v>4301071075</v>
       </c>
       <c r="E473" s="3">
-        <v>4607111033659</v>
+        <v>4620207491102</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>726</v>
+        <v>965</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="D474" s="4">
-        <v>4301135550</v>
+        <v>4301135574</v>
       </c>
       <c r="E474" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>955</v>
+        <v>742</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>956</v>
+        <v>743</v>
       </c>
       <c r="D475" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E475" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>957</v>
+        <v>744</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>881</v>
+        <v>955</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>882</v>
+        <v>956</v>
       </c>
       <c r="D476" s="4">
-        <v>4301131046</v>
+        <v>4301135753</v>
       </c>
       <c r="E476" s="3">
-        <v>4607111034137</v>
+        <v>4620207490914</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>781</v>
+        <v>881</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="D477" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E477" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="D478" s="4">
-        <v>4301132188</v>
+        <v>4301131047</v>
       </c>
       <c r="E478" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>869</v>
+        <v>759</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>870</v>
+        <v>760</v>
       </c>
       <c r="D479" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E479" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>871</v>
+        <v>761</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>699</v>
+        <v>869</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="D480" s="4">
-        <v>4301135570</v>
+        <v>4301132179</v>
       </c>
       <c r="E480" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>923</v>
+        <v>701</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="D481" s="4">
-        <v>4301071049</v>
+        <v>4301135570</v>
       </c>
       <c r="E481" s="3">
-        <v>4607111039293</v>
+        <v>4607111035806</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>923</v>
+        <v>701</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>656</v>
+        <v>923</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="D482" s="4">
-        <v>4301135555</v>
+        <v>4301071049</v>
       </c>
       <c r="E482" s="3">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>656</v>
+        <v>923</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D483" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E483" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D484" s="4">
+        <v>4301135532</v>
+      </c>
+      <c r="E484" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
         <v>968</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="D484" s="4">
+      <c r="D485" s="4">
         <v>4301071094</v>
       </c>
-      <c r="E484" s="3">
+      <c r="E485" s="3">
         <v>4620207491140</v>
       </c>
-      <c r="F484" s="5" t="s">
+      <c r="F485" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A485" s="10" t="s">
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D486" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E485" s="3">
+      <c r="E486" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F485" s="5" t="s">
+      <c r="F486" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="10" t="s">
-        <v>977</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="D487" s="4">
-        <v>4301132188</v>
+        <v>4301132190</v>
       </c>
       <c r="E487" s="3">
-        <v>4607111036605</v>
+        <v>4607111036537</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D488" s="4">
-        <v>4301071090</v>
+        <v>4301132188</v>
       </c>
       <c r="E488" s="3">
-        <v>4620207490075</v>
+        <v>4607111036605</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D489" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E489" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>668</v>
+        <v>756</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>669</v>
+        <v>757</v>
       </c>
       <c r="D490" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E490" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>670</v>
+        <v>755</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>724</v>
+        <v>668</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>725</v>
+        <v>669</v>
       </c>
       <c r="D491" s="4">
-        <v>4301135574</v>
+        <v>4301071044</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111033659</v>
+        <v>4607111039385</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>781</v>
+        <v>724</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>782</v>
+        <v>725</v>
       </c>
       <c r="D492" s="4">
-        <v>4301131047</v>
+        <v>4301135574</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111034120</v>
+        <v>4607111033659</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>881</v>
+        <v>781</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>882</v>
+        <v>782</v>
       </c>
       <c r="D493" s="4">
-        <v>4301131046</v>
+        <v>4301131047</v>
       </c>
       <c r="E493" s="3">
-        <v>4607111034137</v>
+        <v>4607111034120</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>883</v>
+        <v>783</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>939</v>
+        <v>881</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>940</v>
+        <v>882</v>
       </c>
       <c r="D494" s="4">
-        <v>4301135793</v>
+        <v>4301131046</v>
       </c>
       <c r="E494" s="3">
-        <v>4620207491003</v>
+        <v>4607111034137</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>941</v>
+        <v>883</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135760</v>
+        <v>4301135793</v>
       </c>
       <c r="E495" s="3">
-        <v>4620207491010</v>
+        <v>4620207491003</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D496" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E496" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B497" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C497" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D497" s="4">
         <v>4301135285</v>
       </c>
-      <c r="E496" s="3">
+      <c r="E497" s="3">
         <v>4607111036407</v>
       </c>
-      <c r="F496" s="5" t="s">
+      <c r="F497" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="10" t="s">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D498" s="4">
         <v>4301136070</v>
       </c>
-      <c r="E497" s="3">
+      <c r="E498" s="3">
         <v>4607025784012</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F498" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="10" t="s">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B499" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C498" s="3" t="s">
+      <c r="C499" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D498" s="4">
+      <c r="D499" s="4">
         <v>4301071051</v>
       </c>
-      <c r="E498" s="3">
+      <c r="E499" s="3">
         <v>4607111039262</v>
       </c>
-      <c r="F498" s="5" t="s">
+      <c r="F499" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="10" t="s">
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B500" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D500" s="4">
         <v>4301071038</v>
       </c>
-      <c r="E499" s="3">
+      <c r="E500" s="3">
         <v>4607111039248</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F500" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="10" t="s">
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B501" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D501" s="4">
         <v>4301071049</v>
       </c>
-      <c r="E500" s="3">
+      <c r="E501" s="3">
         <v>4607111039293</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F501" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="10" t="s">
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B502" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C501" s="3" t="s">
+      <c r="C502" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D501" s="4">
+      <c r="D502" s="4">
         <v>4301071039</v>
       </c>
-      <c r="E501" s="3">
+      <c r="E502" s="3">
         <v>4607111039279</v>
       </c>
-      <c r="F501" s="5" t="s">
+      <c r="F502" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="10" t="s">
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="C503" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D503" s="4">
         <v>4301135555</v>
       </c>
-      <c r="E502" s="3">
+      <c r="E503" s="3">
         <v>4607111034014</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F503" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="10" t="s">
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B504" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C504" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D504" s="4">
         <v>4301135532</v>
       </c>
-      <c r="E503" s="3">
+      <c r="E504" s="3">
         <v>4607111033994</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F504" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="10" t="s">
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B505" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C504" s="3" t="s">
+      <c r="C505" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D504" s="4">
+      <c r="D505" s="4">
         <v>4301135550</v>
       </c>
-      <c r="E504" s="3">
+      <c r="E505" s="3">
         <v>4607111034199</v>
       </c>
-      <c r="F504" s="5" t="s">
+      <c r="F505" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505" s="10" t="s">
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="10" t="s">
         <v>996</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B506" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C505" s="3" t="s">
+      <c r="C506" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D505" s="4">
+      <c r="D506" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E505" s="3">
+      <c r="E506" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F505" s="5" t="s">
+      <c r="F506" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="G505" s="1"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="10" t="s">
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B507" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="C507" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D506" s="4">
+      <c r="D507" s="4">
         <v>4301135570</v>
       </c>
-      <c r="E506" s="3">
+      <c r="E507" s="3">
         <v>4607111035806</v>
       </c>
-      <c r="F506" s="5" t="s">
+      <c r="F507" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="10" t="s">
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="10" t="s">
         <v>998</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B508" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C508" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="D507" s="4">
+      <c r="D508" s="4">
         <v>4301132179</v>
       </c>
-      <c r="E507" s="3">
+      <c r="E508" s="3">
         <v>4607111035691</v>
       </c>
-      <c r="F507" s="5" t="s">
+      <c r="F508" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="G507" s="1"/>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508" s="10" t="s">
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B509" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="C509" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="D508" s="4">
+      <c r="D509" s="4">
         <v>4301071063</v>
       </c>
-      <c r="E508" s="3">
+      <c r="E509" s="3">
         <v>4607111039019</v>
       </c>
-      <c r="F508" s="5" t="s">
+      <c r="F509" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="G508" s="1"/>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A509" s="10" t="s">
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
         <v>1000</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B510" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C510" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D509" s="4">
+      <c r="D510" s="4">
         <v>4301071000</v>
       </c>
-      <c r="E509" s="3">
+      <c r="E510" s="3">
         <v>4607111038708</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="F510" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="G509" s="1"/>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="10" t="s">
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
         <v>1006</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D510" s="4">
-        <v>4301135692</v>
-      </c>
-      <c r="E510" s="3">
-        <v>4620207490570</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G510" s="1"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="10" t="s">
-        <v>1003</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>1004</v>
@@ -18158,48 +18164,45 @@
       </c>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B512" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="C512" s="18" t="s">
-        <v>621</v>
-      </c>
-      <c r="D512" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E512" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F512" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="G512" s="21"/>
-      <c r="H512" s="22" t="s">
-        <v>853</v>
-      </c>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D512" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E512" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>261</v>
+        <v>621</v>
       </c>
       <c r="D513" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>262</v>
+        <v>622</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18208,22 +18211,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>628</v>
+        <v>106</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>629</v>
+        <v>261</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>630</v>
+        <v>262</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18232,22 +18235,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18256,22 +18259,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="D516" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E516" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18280,22 +18283,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>524</v>
+        <v>294</v>
       </c>
       <c r="D517" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18304,22 +18307,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D518" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E518" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F518" s="5" t="s">
-        <v>304</v>
+        <v>797</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C518" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="D518" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E518" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18328,22 +18331,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>799</v>
-      </c>
-      <c r="B519" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C519" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D519" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E519" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F519" s="20" t="s">
-        <v>320</v>
+        <v>798</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D519" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E519" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18352,22 +18355,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>553</v>
+        <v>318</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>554</v>
+        <v>319</v>
       </c>
       <c r="D520" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E520" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>555</v>
+        <v>320</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18376,70 +18379,70 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="D521" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E521" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F521" s="5" t="s">
-        <v>948</v>
+        <v>800</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="D521" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E521" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F521" s="20" t="s">
+        <v>555</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="16" t="s">
-        <v>942</v>
+      <c r="H521" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B522" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C522" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D522" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E522" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F522" s="20" t="s">
-        <v>632</v>
+        <v>801</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="D522" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E522" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="22" t="s">
-        <v>853</v>
+      <c r="H522" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>624</v>
+        <v>112</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D523" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18448,22 +18451,22 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="D524" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18472,22 +18475,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="D525" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E525" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F525" s="5" t="s">
-        <v>656</v>
+        <v>804</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="D525" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E525" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>653</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18496,70 +18499,70 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>939</v>
+        <v>654</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>940</v>
+        <v>655</v>
       </c>
       <c r="D526" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E526" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>941</v>
+        <v>656</v>
       </c>
       <c r="G526" s="21"/>
-      <c r="H526" s="16" t="s">
-        <v>942</v>
+      <c r="H526" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>382</v>
+        <v>939</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>383</v>
+        <v>940</v>
       </c>
       <c r="D527" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E527" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>384</v>
+        <v>941</v>
       </c>
       <c r="G527" s="21"/>
-      <c r="H527" s="22" t="s">
-        <v>853</v>
+      <c r="H527" s="16" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>549</v>
+        <v>382</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>550</v>
+        <v>383</v>
       </c>
       <c r="D528" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E528" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>551</v>
+        <v>384</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18568,22 +18571,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B529" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="C529" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="D529" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E529" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F529" s="20" t="s">
-        <v>601</v>
+        <v>808</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D529" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E529" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18592,22 +18595,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>854</v>
+        <v>599</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>855</v>
+        <v>600</v>
       </c>
       <c r="D530" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E530" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>425</v>
+        <v>601</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18616,22 +18619,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>164</v>
+        <v>854</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>634</v>
+        <v>855</v>
       </c>
       <c r="D531" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E531" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>635</v>
+        <v>425</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18640,22 +18643,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D532" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E532" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F532" s="5" t="s">
-        <v>301</v>
+        <v>811</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C532" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="D532" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E532" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18664,22 +18667,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B533" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C533" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D533" s="19">
-        <v>4301070920</v>
-      </c>
-      <c r="E533" s="18">
-        <v>4607111035929</v>
-      </c>
-      <c r="F533" s="20" t="s">
-        <v>111</v>
+        <v>812</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D533" s="4">
+        <v>4301136051</v>
+      </c>
+      <c r="E533" s="3">
+        <v>4640242180304</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18688,22 +18691,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D534" s="4">
-        <v>4301135550</v>
-      </c>
-      <c r="E534" s="3">
-        <v>4607111034199</v>
-      </c>
-      <c r="F534" s="5" t="s">
-        <v>744</v>
+        <v>813</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C534" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D534" s="19">
+        <v>4301070920</v>
+      </c>
+      <c r="E534" s="18">
+        <v>4607111035929</v>
+      </c>
+      <c r="F534" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18712,22 +18715,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="C535" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="D535" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E535" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>741</v>
+        <v>814</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D535" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E535" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18736,22 +18739,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B536" s="18" t="s">
-        <v>612</v>
+        <v>739</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>613</v>
+        <v>740</v>
       </c>
       <c r="D536" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E536" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F536" s="20" t="s">
-        <v>614</v>
+        <v>741</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18760,22 +18763,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="D537" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E537" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F537" s="5" t="s">
-        <v>783</v>
+        <v>816</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="C537" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D537" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E537" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F537" s="20" t="s">
+        <v>614</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18784,70 +18787,70 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>902</v>
+        <v>781</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>903</v>
+        <v>782</v>
       </c>
       <c r="D538" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E538" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>904</v>
+        <v>783</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>961</v>
+        <v>853</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B539" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C539" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D539" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E539" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F539" s="20" t="s">
-        <v>559</v>
+        <v>818</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D539" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E539" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>904</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>706</v>
+        <v>557</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>707</v>
+        <v>558</v>
       </c>
       <c r="D540" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E540" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>705</v>
+        <v>559</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18856,22 +18859,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D541" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E541" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F541" s="5" t="s">
-        <v>883</v>
+        <v>820</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C541" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="D541" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E541" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18880,22 +18883,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="D542" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E542" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18904,22 +18907,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>955</v>
+        <v>887</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>956</v>
+        <v>888</v>
       </c>
       <c r="D543" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E543" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>957</v>
+        <v>889</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18928,70 +18931,70 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="D544" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E544" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="G544" s="21"/>
-      <c r="H544" s="16" t="s">
-        <v>949</v>
+      <c r="H544" s="22" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>869</v>
+        <v>943</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>870</v>
+        <v>944</v>
       </c>
       <c r="D545" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E545" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>871</v>
+        <v>945</v>
       </c>
       <c r="G545" s="21"/>
-      <c r="H545" s="22" t="s">
-        <v>853</v>
+      <c r="H545" s="16" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>736</v>
+        <v>869</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>737</v>
+        <v>870</v>
       </c>
       <c r="D546" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E546" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>738</v>
+        <v>871</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
@@ -19000,22 +19003,22 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B547" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C547" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D547" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E547" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F547" s="20" t="s">
-        <v>377</v>
+        <v>826</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D547" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E547" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19024,22 +19027,22 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D548" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E548" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F548" s="5" t="s">
-        <v>892</v>
+        <v>827</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D548" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E548" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F548" s="20" t="s">
+        <v>377</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19048,70 +19051,70 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="D549" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E549" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="G549" s="21"/>
+      <c r="H549" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B550" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C550" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="D549" s="4">
+      <c r="D550" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E549" s="3">
+      <c r="E550" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F549" s="5" t="s">
+      <c r="F550" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="G549" s="21"/>
-      <c r="H549" s="16" t="s">
+      <c r="G550" s="21"/>
+      <c r="H550" s="16" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A550" s="17" t="s">
+    <row r="551" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
         <v>831</v>
       </c>
-      <c r="B550" s="18" t="s">
+      <c r="B551" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="C550" s="18" t="s">
+      <c r="C551" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D550" s="19">
+      <c r="D551" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E550" s="18">
+      <c r="E551" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F550" s="20" t="s">
+      <c r="F551" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="22" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B551" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C551" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D551" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E551" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F551" s="20" t="s">
-        <v>367</v>
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="22" t="s">
@@ -19119,71 +19122,71 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="10" t="s">
+      <c r="A552" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="B552" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C552" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D552" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E552" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F552" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G552" s="21"/>
+      <c r="H552" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="C552" s="3" t="s">
+      <c r="C553" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D552" s="4">
+      <c r="D553" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E552" s="3">
+      <c r="E553" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F552" s="5" t="s">
+      <c r="F553" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G552" s="1"/>
-      <c r="H552" s="16" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B553" s="18" t="s">
-        <v>856</v>
-      </c>
-      <c r="C553" s="18" t="s">
-        <v>857</v>
-      </c>
-      <c r="D553" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E553" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F553" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="G553" s="21"/>
-      <c r="H553" s="22" t="s">
+      <c r="G553" s="1"/>
+      <c r="H553" s="16" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B554" s="18" t="s">
-        <v>154</v>
+        <v>856</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>155</v>
+        <v>857</v>
       </c>
       <c r="D554" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E554" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F554" s="20" t="s">
-        <v>156</v>
+        <v>858</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
@@ -19192,22 +19195,22 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301135824</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>1009</v>
+        <v>834</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19216,22 +19219,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B556" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C556" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="D556" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E556" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F556" s="20" t="s">
-        <v>186</v>
+        <v>835</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D556" s="4">
+        <v>4301135824</v>
+      </c>
+      <c r="E556" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>1009</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19240,22 +19243,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D557" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E557" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F557" s="5" t="s">
-        <v>712</v>
+        <v>836</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="D557" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E557" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19264,22 +19267,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>837</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C558" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D558" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E558" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>129</v>
+        <v>712</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D558" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E558" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19288,22 +19291,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D559" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E559" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>726</v>
+        <v>837</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C559" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D559" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E559" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F559" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19312,22 +19315,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B560" s="18" t="s">
-        <v>668</v>
-      </c>
-      <c r="C560" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="D560" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E560" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F560" s="20" t="s">
-        <v>670</v>
+        <v>838</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D560" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E560" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19336,22 +19339,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="D561" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E561" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19360,22 +19363,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>182</v>
+        <v>686</v>
       </c>
       <c r="D562" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E562" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>183</v>
+        <v>687</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19384,22 +19387,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D563" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E563" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F563" s="5" t="s">
-        <v>170</v>
+        <v>841</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C563" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D563" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E563" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19408,46 +19411,46 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B564" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="C564" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D564" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E564" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F564" s="20" t="s">
-        <v>610</v>
+        <v>842</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D564" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E564" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>859</v>
+        <v>608</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>860</v>
+        <v>609</v>
       </c>
       <c r="D565" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E565" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>861</v>
+        <v>610</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
@@ -19456,46 +19459,46 @@
     </row>
     <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>254</v>
+        <v>862</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>255</v>
+        <v>863</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>152</v>
+        <v>864</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19504,22 +19507,22 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>699</v>
+        <v>254</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>700</v>
+        <v>255</v>
       </c>
       <c r="D568" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>701</v>
+        <v>152</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19528,22 +19531,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D569" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19552,22 +19555,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>674</v>
+        <v>730</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19576,22 +19579,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>483</v>
+        <v>672</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>484</v>
+        <v>673</v>
       </c>
       <c r="D571" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>485</v>
+        <v>674</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19600,22 +19603,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>590</v>
+        <v>483</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>591</v>
+        <v>484</v>
       </c>
       <c r="D572" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19624,30 +19627,54 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="D573" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
         <v>853</v>
       </c>
     </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="B574" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C574" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="D574" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E574" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F574" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="G574" s="21"/>
+      <c r="H574" s="22" t="s">
+        <v>853</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F573" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F574" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ED20D2-47C7-4DD7-9868-6AC9E2848C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F81822-DA93-4CB6-8C33-95EBE53BA439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1011">
   <si>
     <t>1С</t>
   </si>
@@ -3062,19 +3062,16 @@
     <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
-    <t>SU003944</t>
-  </si>
-  <si>
-    <t>P005058</t>
-  </si>
-  <si>
-    <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
-  </si>
-  <si>
     <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг  ПОКОМ</t>
   </si>
   <si>
     <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг XXL  Поком</t>
+  </si>
+  <si>
+    <t>SU003384</t>
+  </si>
+  <si>
+    <t>P004205</t>
   </si>
 </sst>
 </file>
@@ -6334,7 +6331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13015,7 +13012,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>890</v>
@@ -13111,7 +13108,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>890</v>
@@ -14804,19 +14801,19 @@
         <v>578</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D355" s="4">
-        <v>4301135824</v>
+        <v>4301135549</v>
       </c>
       <c r="E355" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1009</v>
+        <v>552</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14825,19 +14822,19 @@
         <v>765</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D356" s="4">
-        <v>4301135824</v>
+        <v>4301135549</v>
       </c>
       <c r="E356" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1009</v>
+        <v>552</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14846,19 +14843,19 @@
         <v>552</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D357" s="4">
-        <v>4301135824</v>
+        <v>4301135549</v>
       </c>
       <c r="E357" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1009</v>
+        <v>552</v>
       </c>
       <c r="G357" s="1"/>
     </row>
@@ -19222,19 +19219,19 @@
         <v>835</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D556" s="4">
-        <v>4301135824</v>
+        <v>4301135549</v>
       </c>
       <c r="E556" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1009</v>
+        <v>552</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739EFB3D-6DDE-472E-AE60-9D49AB56AD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7BCBD1-1CF3-4418-B8E8-A013F51D54DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$574</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$575</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$514</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1014">
   <si>
     <t>1С</t>
   </si>
@@ -3078,6 +3078,9 @@
   </si>
   <si>
     <t>Пельмени «Отборные с говядиной» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>Наггетсы Нагетосы Сочная курочка со сметаной и зеленью ТМ Горячая штучка флоу-пак 0,25 кг  Поком</t>
   </si>
 </sst>
 </file>
@@ -6333,11 +6336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,7 +9035,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>403</v>
+        <v>1013</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>755</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>220</v>
+        <v>403</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>755</v>
@@ -9080,7 +9083,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>755</v>
@@ -9104,22 +9107,22 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>865</v>
+        <v>755</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="D114" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E114" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>867</v>
+        <v>757</v>
       </c>
       <c r="G114" s="1">
         <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
@@ -9128,7 +9131,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>865</v>
@@ -9152,7 +9155,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>640</v>
+        <v>98</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>865</v>
@@ -9176,7 +9179,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>77</v>
+        <v>640</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>865</v>
@@ -9200,22 +9203,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>733</v>
+        <v>866</v>
       </c>
       <c r="D118" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E118" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>734</v>
+        <v>867</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
@@ -9224,7 +9227,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>691</v>
+        <v>99</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>732</v>
@@ -9248,7 +9251,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>78</v>
+        <v>691</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>732</v>
@@ -9272,22 +9275,22 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>646</v>
+        <v>78</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>861</v>
+        <v>732</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>862</v>
+        <v>733</v>
       </c>
       <c r="D121" s="4">
-        <v>4301132182</v>
+        <v>4301132190</v>
       </c>
       <c r="E121" s="3">
-        <v>4607111035721</v>
+        <v>4607111036537</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>863</v>
+        <v>734</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -9296,7 +9299,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>700</v>
+        <v>646</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>861</v>
@@ -9320,7 +9323,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>861</v>
@@ -9343,8 +9346,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
-        <v>826</v>
+      <c r="A124" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>861</v>
@@ -9361,38 +9364,38 @@
       <c r="F124" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="22" t="s">
+      <c r="G124" s="1">
+        <f>VLOOKUP(E124,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4301132182</v>
+      </c>
+      <c r="E125" s="3">
+        <v>4607111035721</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="G125" s="21"/>
+      <c r="H125" s="22" t="s">
         <v>849</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D125" s="4">
-        <v>4301132080</v>
-      </c>
-      <c r="E125" s="3">
-        <v>4640242180397</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125" s="1">
-        <f>VLOOKUP(E125,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>289</v>
@@ -9416,7 +9419,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>289</v>
@@ -9440,7 +9443,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>289</v>
@@ -9464,7 +9467,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>289</v>
@@ -9488,22 +9491,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>695</v>
+        <v>289</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>696</v>
+        <v>290</v>
       </c>
       <c r="D130" s="4">
-        <v>4301135570</v>
+        <v>4301132080</v>
       </c>
       <c r="E130" s="3">
-        <v>4607111035806</v>
+        <v>4640242180397</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>697</v>
+        <v>291</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>695</v>
@@ -9536,7 +9539,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>695</v>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>695</v>
@@ -9584,7 +9587,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>698</v>
+        <v>423</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>695</v>
@@ -9608,7 +9611,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>203</v>
+        <v>698</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>695</v>
@@ -9632,22 +9635,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>221</v>
+        <v>695</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>222</v>
+        <v>696</v>
       </c>
       <c r="D136" s="4">
-        <v>4301070865</v>
+        <v>4301135570</v>
       </c>
       <c r="E136" s="3">
-        <v>4607111036285</v>
+        <v>4607111035806</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>223</v>
+        <v>697</v>
       </c>
       <c r="G136" s="1">
         <f>VLOOKUP(E136,[1]Лист1!$D:$M,10,0)</f>
@@ -9656,7 +9659,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>221</v>
@@ -9680,7 +9683,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>221</v>
@@ -9704,7 +9707,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>416</v>
+        <v>223</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>221</v>
@@ -9728,7 +9731,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>221</v>
@@ -9752,22 +9755,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="D141" s="4">
-        <v>4301070970</v>
+        <v>4301070865</v>
       </c>
       <c r="E141" s="3">
-        <v>4607111037091</v>
+        <v>4607111036285</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="G141" s="1">
         <f>VLOOKUP(E141,[1]Лист1!$D:$M,10,0)</f>
@@ -9776,7 +9779,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>144</v>
@@ -9800,7 +9803,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>144</v>
@@ -9824,7 +9827,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>453</v>
+        <v>269</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>144</v>
@@ -9848,7 +9851,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>144</v>
@@ -9872,22 +9875,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D146" s="4">
-        <v>4301070973</v>
+        <v>4301070970</v>
       </c>
       <c r="E146" s="3">
-        <v>4607111033987</v>
+        <v>4607111037091</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G146" s="1">
         <f>VLOOKUP(E146,[1]Лист1!$D:$M,10,0)</f>
@@ -9896,7 +9899,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>108</v>
@@ -9920,7 +9923,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>108</v>
@@ -9944,22 +9947,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="D149" s="4">
-        <v>4301070861</v>
+        <v>4301070973</v>
       </c>
       <c r="E149" s="3">
-        <v>4607111036308</v>
+        <v>4607111033987</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="G149" s="1">
         <f>VLOOKUP(E149,[1]Лист1!$D:$M,10,0)</f>
@@ -9968,7 +9971,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>224</v>
@@ -9992,7 +9995,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>224</v>
@@ -10016,22 +10019,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="D152" s="4">
-        <v>4301070864</v>
+        <v>4301070861</v>
       </c>
       <c r="E152" s="3">
-        <v>4607111036292</v>
+        <v>4607111036308</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="G152" s="1">
         <f>VLOOKUP(E152,[1]Лист1!$D:$M,10,0)</f>
@@ -10040,7 +10043,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>354</v>
+        <v>81</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>100</v>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>100</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>100</v>
@@ -10112,22 +10115,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="D156" s="4">
-        <v>4301070974</v>
+        <v>4301070864</v>
       </c>
       <c r="E156" s="3">
-        <v>4607111034151</v>
+        <v>4607111036292</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="G156" s="1">
         <f>VLOOKUP(E156,[1]Лист1!$D:$M,10,0)</f>
@@ -10136,7 +10139,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>107</v>
@@ -10160,7 +10163,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>107</v>
@@ -10184,22 +10187,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>450</v>
+        <v>262</v>
       </c>
       <c r="D159" s="4">
-        <v>4301070989</v>
+        <v>4301070974</v>
       </c>
       <c r="E159" s="3">
-        <v>4607111037190</v>
+        <v>4607111034151</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>451</v>
+        <v>263</v>
       </c>
       <c r="G159" s="1">
         <f>VLOOKUP(E159,[1]Лист1!$D:$M,10,0)</f>
@@ -10208,7 +10211,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>434</v>
+        <v>204</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>138</v>
@@ -10232,7 +10235,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>137</v>
+        <v>434</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>138</v>
@@ -10256,22 +10259,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>274</v>
+        <v>450</v>
       </c>
       <c r="D162" s="4">
-        <v>4301070972</v>
+        <v>4301070989</v>
       </c>
       <c r="E162" s="3">
-        <v>4607111037183</v>
+        <v>4607111037190</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>275</v>
+        <v>451</v>
       </c>
       <c r="G162" s="1">
         <f>VLOOKUP(E162,[1]Лист1!$D:$M,10,0)</f>
@@ -10280,7 +10283,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>417</v>
+        <v>211</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>140</v>
@@ -10304,7 +10307,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>140</v>
@@ -10328,30 +10331,31 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>429</v>
+        <v>139</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>585</v>
+        <v>274</v>
       </c>
       <c r="D165" s="4">
-        <v>4301070969</v>
+        <v>4301070972</v>
       </c>
       <c r="E165" s="3">
-        <v>4607111036858</v>
+        <v>4607111037183</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G165" s="1">
+        <f>VLOOKUP(E165,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>142</v>
@@ -10374,7 +10378,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>142</v>
@@ -10397,46 +10401,45 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="D168" s="4">
-        <v>4301070968</v>
+        <v>4301070969</v>
       </c>
       <c r="E168" s="3">
-        <v>4607111036889</v>
+        <v>4607111036858</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="G168" s="1">
-        <f>VLOOKUP(E168,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>381</v>
+        <v>562</v>
       </c>
       <c r="D169" s="4">
-        <v>4301070971</v>
+        <v>4301070968</v>
       </c>
       <c r="E169" s="3">
-        <v>4607111036902</v>
+        <v>4607111036889</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G169" s="1">
         <f>VLOOKUP(E169,[1]Лист1!$D:$M,10,0)</f>
@@ -10445,7 +10448,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>147</v>
@@ -10469,7 +10472,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>147</v>
@@ -10493,22 +10496,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>255</v>
+        <v>381</v>
       </c>
       <c r="D172" s="4">
-        <v>4301070976</v>
+        <v>4301070971</v>
       </c>
       <c r="E172" s="3">
-        <v>4607111034144</v>
+        <v>4607111036902</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="G172" s="1">
         <f>VLOOKUP(E172,[1]Лист1!$D:$M,10,0)</f>
@@ -10517,7 +10520,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>104</v>
@@ -10541,7 +10544,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>104</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>104</v>
@@ -10589,22 +10592,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D176" s="4">
-        <v>4301070975</v>
+        <v>4301070976</v>
       </c>
       <c r="E176" s="3">
-        <v>4607111033970</v>
+        <v>4607111034144</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G176" s="1">
         <f>VLOOKUP(E176,[1]Лист1!$D:$M,10,0)</f>
@@ -10613,7 +10616,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>105</v>
@@ -10637,7 +10640,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>105</v>
@@ -10661,7 +10664,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>105</v>
@@ -10685,7 +10688,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>105</v>
@@ -10709,22 +10712,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D181" s="4">
-        <v>4301070981</v>
+        <v>4301070975</v>
       </c>
       <c r="E181" s="3">
-        <v>4607111036728</v>
+        <v>4607111033970</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G181" s="1">
         <f>VLOOKUP(E181,[1]Лист1!$D:$M,10,0)</f>
@@ -10733,7 +10736,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>544</v>
+        <v>317</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>106</v>
@@ -10757,7 +10760,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>106</v>
@@ -10781,7 +10784,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>692</v>
+        <v>561</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>106</v>
@@ -10805,7 +10808,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>85</v>
+        <v>692</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>106</v>
@@ -10829,22 +10832,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="D186" s="4">
-        <v>4301071010</v>
+        <v>4301070981</v>
       </c>
       <c r="E186" s="3">
-        <v>4607111037701</v>
+        <v>4607111036728</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="G186" s="1">
         <f>VLOOKUP(E186,[1]Лист1!$D:$M,10,0)</f>
@@ -10853,7 +10856,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>169</v>
@@ -10877,7 +10880,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>169</v>
@@ -10901,31 +10904,31 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D189" s="4">
-        <v>4301070870</v>
+        <v>4301071010</v>
       </c>
       <c r="E189" s="3">
-        <v>4607111036711</v>
+        <v>4607111037701</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G189" s="1">
         <f>VLOOKUP(E189,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>176</v>
+        <v>425</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>173</v>
@@ -10949,31 +10952,31 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="D191" s="4">
-        <v>4301070948</v>
+        <v>4301070870</v>
       </c>
       <c r="E191" s="3">
-        <v>4607111037022</v>
+        <v>4607111036711</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="G191" s="1">
         <f>VLOOKUP(E191,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>250</v>
@@ -10997,7 +11000,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>250</v>
@@ -11021,22 +11024,22 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1005</v>
+        <v>250</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1006</v>
+        <v>251</v>
       </c>
       <c r="D194" s="4">
-        <v>4301071109</v>
+        <v>4301070948</v>
       </c>
       <c r="E194" s="3">
-        <v>4607111035929</v>
+        <v>4607111037022</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1007</v>
+        <v>150</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11045,7 +11048,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>1005</v>
@@ -11069,22 +11072,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D196" s="4">
-        <v>4301071107</v>
+        <v>4301071109</v>
       </c>
       <c r="E196" s="3">
-        <v>4607111035905</v>
+        <v>4607111035929</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -11093,7 +11096,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>768</v>
+        <v>151</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>1010</v>
@@ -11117,7 +11120,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>152</v>
+        <v>768</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>1010</v>
@@ -11141,22 +11144,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>177</v>
+        <v>1010</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>178</v>
+        <v>1011</v>
       </c>
       <c r="D199" s="4">
-        <v>4301070917</v>
+        <v>4301071107</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111035912</v>
+        <v>4607111035905</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>179</v>
+        <v>1012</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -11165,7 +11168,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>177</v>
@@ -11189,7 +11192,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>177</v>
@@ -11213,7 +11216,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>177</v>
@@ -11237,22 +11240,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>627</v>
+        <v>178</v>
       </c>
       <c r="D203" s="4">
-        <v>4301071050</v>
+        <v>4301070917</v>
       </c>
       <c r="E203" s="3">
-        <v>4607111036216</v>
+        <v>4607111035912</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>628</v>
+        <v>179</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>769</v>
+        <v>153</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>110</v>
@@ -11285,7 +11288,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>110</v>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>89</v>
+        <v>672</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>110</v>
@@ -11333,22 +11336,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>520</v>
+        <v>627</v>
       </c>
       <c r="D207" s="4">
-        <v>4301071029</v>
+        <v>4301071050</v>
       </c>
       <c r="E207" s="3">
-        <v>4607111035899</v>
+        <v>4607111036216</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>112</v>
+        <v>628</v>
       </c>
       <c r="G207" s="1">
         <f>VLOOKUP(E207,[1]Лист1!$D:$M,10,0)</f>
@@ -11357,7 +11360,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>111</v>
@@ -11381,22 +11384,22 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="D209" s="4">
-        <v>4301070873</v>
+        <v>4301071029</v>
       </c>
       <c r="E209" s="3">
-        <v>4607111035080</v>
+        <v>4607111035899</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="G209" s="1">
         <f>VLOOKUP(E209,[1]Лист1!$D:$M,10,0)</f>
@@ -11405,28 +11408,31 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>521</v>
+        <v>157</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>492</v>
+        <v>155</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>493</v>
+        <v>156</v>
       </c>
       <c r="D210" s="4">
-        <v>4301071000</v>
+        <v>4301070873</v>
       </c>
       <c r="E210" s="3">
-        <v>4607111038708</v>
+        <v>4607111035080</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="G210" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="G210" s="1">
+        <f>VLOOKUP(E210,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>154</v>
+        <v>521</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>492</v>
@@ -11443,40 +11449,35 @@
       <c r="F211" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="G211" s="1" t="e">
-        <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>632</v>
+        <v>492</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>633</v>
+        <v>493</v>
       </c>
       <c r="D212" s="4">
-        <v>4301135504</v>
+        <v>4301071000</v>
       </c>
       <c r="E212" s="3">
-        <v>4640242181554</v>
+        <v>4607111038708</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="G212" s="1">
-        <v>180</v>
-      </c>
-      <c r="H212" s="16" t="s">
-        <v>635</v>
+        <v>494</v>
+      </c>
+      <c r="G212" s="1" t="e">
+        <f>VLOOKUP(E212,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>387</v>
+        <v>228</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>632</v>
@@ -11502,7 +11503,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>632</v>
@@ -11528,7 +11529,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>632</v>
@@ -11554,7 +11555,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>632</v>
@@ -11580,7 +11581,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>636</v>
+        <v>158</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>632</v>
@@ -11600,34 +11601,36 @@
       <c r="G217" s="1">
         <v>180</v>
       </c>
+      <c r="H217" s="16" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>406</v>
+        <v>636</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>160</v>
+        <v>632</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D218" s="4">
-        <v>4301071056</v>
+        <v>4301135504</v>
       </c>
       <c r="E218" s="3">
-        <v>4640242180250</v>
+        <v>4640242181554</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G218" s="1">
-        <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>160</v>
@@ -11651,7 +11654,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>159</v>
+        <v>383</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>160</v>
@@ -11675,22 +11678,22 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>738</v>
+        <v>160</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>739</v>
+        <v>630</v>
       </c>
       <c r="D221" s="4">
-        <v>4301135550</v>
+        <v>4301071056</v>
       </c>
       <c r="E221" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>740</v>
+        <v>631</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -11699,7 +11702,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>738</v>
@@ -11723,7 +11726,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>771</v>
+        <v>113</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>738</v>
@@ -11747,7 +11750,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>92</v>
+        <v>771</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>738</v>
@@ -11771,31 +11774,31 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>259</v>
+        <v>738</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>260</v>
+        <v>739</v>
       </c>
       <c r="D225" s="4">
-        <v>4301131018</v>
+        <v>4301135550</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G225" s="1" t="e">
+        <v>740</v>
+      </c>
+      <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>259</v>
@@ -11819,30 +11822,31 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>468</v>
+        <v>259</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>469</v>
+        <v>260</v>
       </c>
       <c r="D227" s="4">
-        <v>4301190022</v>
+        <v>4301131018</v>
       </c>
       <c r="E227" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G227" s="1">
-        <v>365</v>
+        <v>261</v>
+      </c>
+      <c r="G227" s="1" t="e">
+        <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>468</v>
@@ -11860,13 +11864,12 @@
         <v>470</v>
       </c>
       <c r="G228" s="1">
-        <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>468</v>
@@ -11890,22 +11893,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="D230" s="4">
-        <v>4301190023</v>
+        <v>4301190022</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -11914,7 +11917,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>409</v>
@@ -11938,7 +11941,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>409</v>
@@ -11962,31 +11965,31 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>772</v>
+        <v>120</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>181</v>
+        <v>409</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>522</v>
+        <v>410</v>
       </c>
       <c r="D233" s="4">
-        <v>4301135285</v>
+        <v>4301190023</v>
       </c>
       <c r="E233" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>182</v>
+        <v>411</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>439</v>
+        <v>772</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>181</v>
@@ -12010,7 +12013,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>182</v>
+        <v>439</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>181</v>
@@ -12034,7 +12037,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>181</v>
@@ -12058,22 +12061,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>650</v>
+        <v>181</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>651</v>
+        <v>522</v>
       </c>
       <c r="D237" s="4">
-        <v>4301135555</v>
+        <v>4301135285</v>
       </c>
       <c r="E237" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>652</v>
+        <v>182</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -12082,7 +12085,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>345</v>
+        <v>93</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>650</v>
@@ -12106,7 +12109,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>774</v>
+        <v>345</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>650</v>
@@ -12130,7 +12133,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>650</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>214</v>
+        <v>693</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>650</v>
@@ -12178,22 +12181,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D242" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E242" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -12202,7 +12205,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>773</v>
+        <v>215</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>647</v>
@@ -12226,7 +12229,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>114</v>
+        <v>773</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>647</v>
@@ -12250,7 +12253,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>647</v>
@@ -12274,22 +12277,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>295</v>
+        <v>647</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>296</v>
+        <v>648</v>
       </c>
       <c r="D246" s="4">
-        <v>4301136051</v>
+        <v>4301135532</v>
       </c>
       <c r="E246" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>297</v>
+        <v>649</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -12298,7 +12301,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>295</v>
@@ -12322,7 +12325,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>295</v>
@@ -12346,7 +12349,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>295</v>
@@ -12370,7 +12373,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>121</v>
+        <v>491</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>295</v>
@@ -12394,22 +12397,22 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>342</v>
+        <v>121</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D251" s="4">
-        <v>4301136053</v>
+        <v>4301136051</v>
       </c>
       <c r="E251" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G251" s="1">
         <f>VLOOKUP(E251,[1]Лист1!$D:$M,10,0)</f>
@@ -12418,7 +12421,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>298</v>
@@ -12442,7 +12445,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>298</v>
@@ -12466,7 +12469,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>298</v>
@@ -12490,22 +12493,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="D255" s="4">
-        <v>4301070915</v>
+        <v>4301136053</v>
       </c>
       <c r="E255" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="G255" s="1">
         <f>VLOOKUP(E255,[1]Лист1!$D:$M,10,0)</f>
@@ -12514,7 +12517,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>232</v>
@@ -12538,7 +12541,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>232</v>
@@ -12562,22 +12565,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D258" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E258" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G258" s="1">
         <f>VLOOKUP(E258,[1]Лист1!$D:$M,10,0)</f>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>235</v>
@@ -12610,7 +12613,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>237</v>
+        <v>400</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>235</v>
@@ -12634,22 +12637,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>528</v>
+        <v>236</v>
       </c>
       <c r="D261" s="4">
-        <v>4301136066</v>
+        <v>4301070874</v>
       </c>
       <c r="E261" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G261" s="1">
         <f>VLOOKUP(E261,[1]Лист1!$D:$M,10,0)</f>
@@ -12658,7 +12661,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>238</v>
@@ -12682,7 +12685,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>238</v>
@@ -12706,31 +12709,31 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="D264" s="4">
-        <v>4301051320</v>
+        <v>4301136066</v>
       </c>
       <c r="E264" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G264" s="1">
         <f>VLOOKUP(E264,[1]Лист1!$D:$M,10,0)</f>
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>241</v>
@@ -12754,7 +12757,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>241</v>
@@ -12778,22 +12781,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D267" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E267" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G267" s="1">
         <f>VLOOKUP(E267,[1]Лист1!$D:$M,10,0)</f>
@@ -12802,46 +12805,46 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="D268" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E268" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="G268" s="1">
         <f>VLOOKUP(E268,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>402</v>
+        <v>273</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D269" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E269" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G269" s="1">
         <f>VLOOKUP(E269,[1]Лист1!$D:$M,10,0)</f>
@@ -12850,7 +12853,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>308</v>
@@ -12874,7 +12877,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>308</v>
@@ -12898,22 +12901,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D272" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E272" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G272" s="1">
         <f>VLOOKUP(E272,[1]Лист1!$D:$M,10,0)</f>
@@ -12922,7 +12925,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>711</v>
+        <v>316</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>314</v>
@@ -12946,7 +12949,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>313</v>
+        <v>711</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>314</v>
@@ -12970,22 +12973,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>919</v>
+        <v>315</v>
       </c>
       <c r="D275" s="4">
-        <v>4301071062</v>
+        <v>4301070977</v>
       </c>
       <c r="E275" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>920</v>
+        <v>316</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12994,7 +12997,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>320</v>
@@ -13018,22 +13021,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>1002</v>
+        <v>319</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>884</v>
+        <v>320</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="D277" s="4">
-        <v>4301135571</v>
+        <v>4301071062</v>
       </c>
       <c r="E277" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -13042,7 +13045,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>404</v>
+        <v>1002</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>884</v>
@@ -13066,7 +13069,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>884</v>
@@ -13090,7 +13093,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>886</v>
+        <v>324</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>884</v>
@@ -13114,7 +13117,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>1001</v>
+        <v>886</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>884</v>
@@ -13138,7 +13141,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>323</v>
+        <v>1001</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>884</v>
@@ -13162,22 +13165,22 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>329</v>
+        <v>884</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>330</v>
+        <v>885</v>
       </c>
       <c r="D283" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E283" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>331</v>
+        <v>886</v>
       </c>
       <c r="G283" s="1">
         <f>VLOOKUP(E283,[1]Лист1!$D:$M,10,0)</f>
@@ -13186,7 +13189,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>329</v>
@@ -13210,7 +13213,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>328</v>
+        <v>456</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>329</v>
@@ -13234,22 +13237,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>426</v>
+        <v>328</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>586</v>
+        <v>329</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>587</v>
+        <v>330</v>
       </c>
       <c r="D286" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E286" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>588</v>
+        <v>331</v>
       </c>
       <c r="G286" s="1">
         <f>VLOOKUP(E286,[1]Лист1!$D:$M,10,0)</f>
@@ -13258,7 +13261,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>586</v>
@@ -13282,22 +13285,22 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="D288" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E288" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="G288" s="1">
         <f>VLOOKUP(E288,[1]Лист1!$D:$M,10,0)</f>
@@ -13306,7 +13309,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>930</v>
+        <v>427</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>336</v>
@@ -13330,7 +13333,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>335</v>
+        <v>930</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>336</v>
@@ -13354,31 +13357,31 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>637</v>
+        <v>335</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>349</v>
+        <v>556</v>
       </c>
       <c r="D291" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E291" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>350</v>
+        <v>557</v>
       </c>
       <c r="G291" s="1">
         <f>VLOOKUP(E291,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>350</v>
+        <v>637</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>348</v>
@@ -13402,7 +13405,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>348</v>
@@ -13426,22 +13429,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D294" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E294" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
@@ -13450,46 +13453,46 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D295" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E295" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G295" s="1">
         <f>VLOOKUP(E295,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D296" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E296" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G296" s="1">
         <f>VLOOKUP(E296,[1]Лист1!$D:$M,10,0)</f>
@@ -13498,7 +13501,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>364</v>
@@ -13522,7 +13525,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>364</v>
@@ -13546,55 +13549,55 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D299" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E299" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G299" s="1">
         <f>VLOOKUP(E299,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D300" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E300" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G300" s="1">
         <f>VLOOKUP(E300,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>371</v>
@@ -13618,7 +13621,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>373</v>
+        <v>161</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>371</v>
@@ -13642,7 +13645,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>371</v>
@@ -13666,22 +13669,22 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>780</v>
+        <v>371</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>781</v>
+        <v>372</v>
       </c>
       <c r="D304" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E304" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>782</v>
+        <v>373</v>
       </c>
       <c r="G304" s="1">
         <f>VLOOKUP(E304,[1]Лист1!$D:$M,10,0)</f>
@@ -13690,7 +13693,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>780</v>
@@ -13714,7 +13717,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>780</v>
@@ -13738,7 +13741,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>780</v>
@@ -13762,22 +13765,22 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>431</v>
+        <v>780</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>432</v>
+        <v>781</v>
       </c>
       <c r="D308" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E308" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>433</v>
+        <v>782</v>
       </c>
       <c r="G308" s="1">
         <f>VLOOKUP(E308,[1]Лист1!$D:$M,10,0)</f>
@@ -13786,7 +13789,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>431</v>
@@ -13810,22 +13813,22 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D310" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E310" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G310" s="1">
         <f>VLOOKUP(E310,[1]Лист1!$D:$M,10,0)</f>
@@ -13834,22 +13837,22 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D311" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E311" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G311" s="1">
         <f>VLOOKUP(E311,[1]Лист1!$D:$M,10,0)</f>
@@ -13858,30 +13861,31 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="D312" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E312" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="G312" s="1">
+        <f>VLOOKUP(E312,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>459</v>
@@ -13904,7 +13908,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>459</v>
@@ -13927,22 +13931,22 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D315" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E315" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G315" s="1">
         <v>180</v>
@@ -13950,7 +13954,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>462</v>
@@ -13973,7 +13977,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>462</v>
@@ -13996,28 +14000,30 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="D318" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E318" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G318" s="1"/>
+        <v>463</v>
+      </c>
+      <c r="G318" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>465</v>
@@ -14038,51 +14044,49 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D320" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E320" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D321" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E321" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G321" s="1">
-        <v>180</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="G321" s="1"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>479</v>
@@ -14103,24 +14107,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D323" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E323" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G323" s="1">
         <v>180</v>
@@ -14128,7 +14132,7 @@
     </row>
     <row r="324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>483</v>
@@ -14151,7 +14155,7 @@
     </row>
     <row r="325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>483</v>
@@ -14174,7 +14178,7 @@
     </row>
     <row r="326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>483</v>
@@ -14195,24 +14199,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B327" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C327" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D327" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E327" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F327" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D327" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E327" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="G327" s="1">
         <v>180</v>
@@ -14220,7 +14224,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>487</v>
@@ -14243,7 +14247,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>487</v>
@@ -14266,7 +14270,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B330" s="12" t="s">
         <v>487</v>
@@ -14289,30 +14293,30 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B331" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D331" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E331" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F331" s="5" t="s">
-        <v>503</v>
+        <v>486</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D331" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E331" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F331" s="15" t="s">
+        <v>489</v>
       </c>
       <c r="G331" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>501</v>
@@ -14335,30 +14339,30 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D333" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E333" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G333" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>506</v>
@@ -14381,28 +14385,30 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D335" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E335" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="G335" s="1"/>
+        <v>505</v>
+      </c>
+      <c r="G335" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>512</v>
@@ -14423,7 +14429,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>512</v>
@@ -14444,7 +14450,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>512</v>
@@ -14465,73 +14471,73 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D339" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E339" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>314</v>
+        <v>516</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>315</v>
+        <v>517</v>
       </c>
       <c r="D340" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E340" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G340" s="1">
-        <f>VLOOKUP(E340,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>525</v>
+        <v>314</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>526</v>
+        <v>315</v>
       </c>
       <c r="D341" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E341" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="G341" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="G341" s="1">
+        <f>VLOOKUP(E341,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>525</v>
@@ -14552,28 +14558,28 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D343" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E343" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>530</v>
@@ -14594,7 +14600,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>530</v>
@@ -14615,28 +14621,28 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D346" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E346" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>629</v>
+        <v>560</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>533</v>
@@ -14657,7 +14663,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>533</v>
@@ -14678,91 +14684,91 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B349" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="C349" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D349" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E349" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F349" s="15" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D349" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E349" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="B350" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B350" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D350" s="4">
+      <c r="D350" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F350" s="5" t="s">
-        <v>602</v>
+      <c r="F350" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="B351" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C351" s="12" t="s">
+      <c r="C351" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D351" s="13">
+      <c r="D351" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E351" s="14">
+      <c r="E351" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F351" s="15" t="s">
-        <v>535</v>
+      <c r="F351" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D352" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E352" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F352" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="D352" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E352" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F352" s="15" t="s">
+        <v>535</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>539</v>
@@ -14783,7 +14789,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>539</v>
@@ -14804,28 +14810,28 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1003</v>
+        <v>539</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1004</v>
+        <v>540</v>
       </c>
       <c r="D355" s="4">
-        <v>4301135549</v>
+        <v>4301070993</v>
       </c>
       <c r="E355" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>761</v>
+        <v>574</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1003</v>
@@ -14846,7 +14852,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>548</v>
+        <v>761</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>1003</v>
@@ -14867,91 +14873,91 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>567</v>
+        <v>1003</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>568</v>
+        <v>1004</v>
       </c>
       <c r="D358" s="4">
-        <v>4301132104</v>
+        <v>4301135549</v>
       </c>
       <c r="E358" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D359" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E359" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="D360" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E360" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D361" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E361" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>595</v>
@@ -14972,7 +14978,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>595</v>
@@ -14993,7 +14999,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>595</v>
@@ -15014,28 +15020,28 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D365" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E365" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>604</v>
@@ -15056,7 +15062,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>604</v>
@@ -15077,28 +15083,28 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>679</v>
+        <v>603</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D368" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E368" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>608</v>
@@ -15119,7 +15125,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>610</v>
+        <v>730</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>608</v>
@@ -15140,7 +15146,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>608</v>
@@ -15161,28 +15167,28 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D372" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E372" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>612</v>
@@ -15203,7 +15209,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>614</v>
+        <v>673</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>612</v>
@@ -15224,7 +15230,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>709</v>
+        <v>614</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>612</v>
@@ -15245,7 +15251,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>611</v>
+        <v>709</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>612</v>
@@ -15266,28 +15272,28 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D377" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E377" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>685</v>
+        <v>659</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>616</v>
@@ -15308,7 +15314,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>616</v>
@@ -15329,7 +15335,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>618</v>
+        <v>674</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>616</v>
@@ -15350,7 +15356,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>616</v>
@@ -15371,28 +15377,28 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D382" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E382" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>620</v>
@@ -15413,7 +15419,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>622</v>
+        <v>675</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>620</v>
@@ -15434,7 +15440,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>710</v>
+        <v>622</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>620</v>
@@ -15455,7 +15461,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>620</v>
@@ -15476,28 +15482,28 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D387" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E387" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>624</v>
@@ -15518,7 +15524,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>624</v>
@@ -15539,7 +15545,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>624</v>
@@ -15560,7 +15566,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>624</v>
@@ -15581,28 +15587,28 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="D392" s="4">
-        <v>4301135696</v>
+        <v>4301071039</v>
       </c>
       <c r="E392" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>643</v>
@@ -15623,7 +15629,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>643</v>
@@ -15644,28 +15650,28 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D395" s="4">
-        <v>4301135707</v>
+        <v>4301135696</v>
       </c>
       <c r="E395" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>654</v>
@@ -15686,7 +15692,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>654</v>
@@ -15707,28 +15713,28 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D398" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E398" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>712</v>
+        <v>656</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>657</v>
@@ -15749,7 +15755,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>657</v>
@@ -15770,28 +15776,28 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D401" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E401" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>664</v>
@@ -15812,7 +15818,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>664</v>
@@ -15833,7 +15839,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>870</v>
+        <v>666</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>664</v>
@@ -15854,7 +15860,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>663</v>
+        <v>870</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>664</v>
@@ -15875,28 +15881,28 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D406" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E406" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>668</v>
@@ -15917,7 +15923,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>668</v>
@@ -15938,28 +15944,28 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="D409" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E409" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>729</v>
+        <v>683</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>681</v>
@@ -15980,7 +15986,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>681</v>
@@ -16001,30 +16007,28 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>770</v>
+        <v>680</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>888</v>
+        <v>681</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>889</v>
+        <v>682</v>
       </c>
       <c r="D412" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E412" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="G412" s="1">
-        <v>180</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>888</v>
@@ -16047,7 +16051,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>699</v>
+        <v>864</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>888</v>
@@ -16070,28 +16074,30 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>894</v>
+        <v>699</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>702</v>
+        <v>888</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>703</v>
+        <v>889</v>
       </c>
       <c r="D415" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E415" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="G415" s="1"/>
+        <v>890</v>
+      </c>
+      <c r="G415" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>701</v>
+        <v>894</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>702</v>
@@ -16112,28 +16118,28 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D417" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E417" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>706</v>
@@ -16154,7 +16160,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>706</v>
@@ -16175,7 +16181,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>713</v>
+        <v>767</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>706</v>
@@ -16196,28 +16202,28 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D421" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E421" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>715</v>
@@ -16238,7 +16244,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>715</v>
@@ -16259,28 +16265,28 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D424" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E424" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>718</v>
@@ -16301,30 +16307,28 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D426" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E426" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="G426" s="1">
-        <v>180</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="G426" s="1"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>787</v>
+        <v>726</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>724</v>
@@ -16347,7 +16351,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>868</v>
+        <v>787</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>724</v>
@@ -16370,7 +16374,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>724</v>
@@ -16393,7 +16397,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>724</v>
@@ -16416,51 +16420,51 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="D431" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E431" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="G431" s="1"/>
+        <v>726</v>
+      </c>
+      <c r="G431" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D432" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E432" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G432" s="1">
-        <v>180</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="G432" s="1"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>746</v>
@@ -16483,22 +16487,22 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D434" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E434" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G434" s="1">
         <v>180</v>
@@ -16506,7 +16510,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>749</v>
@@ -16529,7 +16533,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>749</v>
@@ -16552,22 +16556,22 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D437" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E437" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G437" s="1">
         <v>180</v>
@@ -16575,7 +16579,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>752</v>
@@ -16598,72 +16602,72 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D439" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E439" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="G439" s="1"/>
+        <v>751</v>
+      </c>
+      <c r="G439" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="D440" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E440" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>880</v>
+        <v>783</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1008</v>
+        <v>784</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1009</v>
+        <v>785</v>
       </c>
       <c r="D441" s="4">
-        <v>4301135826</v>
+        <v>4301135127</v>
       </c>
       <c r="E441" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="G441" s="1">
-        <v>180</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>1008</v>
@@ -16686,7 +16690,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>1008</v>
@@ -16709,7 +16713,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>871</v>
+        <v>892</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>1008</v>
@@ -16732,28 +16736,30 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>873</v>
+        <v>1008</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
       <c r="D445" s="4">
-        <v>4301071074</v>
+        <v>4301135826</v>
       </c>
       <c r="E445" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="G445" s="1"/>
+        <v>879</v>
+      </c>
+      <c r="G445" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>873</v>
@@ -16774,7 +16780,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>873</v>
@@ -16795,28 +16801,28 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
       <c r="D448" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E448" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>898</v>
+        <v>872</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>896</v>
@@ -16837,7 +16843,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>896</v>
@@ -16858,7 +16864,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>896</v>
@@ -16879,88 +16885,85 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D452" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E452" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D453" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E453" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G453" s="1"/>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>746</v>
+        <v>904</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>747</v>
+        <v>905</v>
       </c>
       <c r="D454" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E454" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>745</v>
+        <v>906</v>
       </c>
       <c r="G454" s="1"/>
-      <c r="H454" s="16" t="s">
-        <v>918</v>
-      </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D455" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E455" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
@@ -16969,22 +16972,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="D456" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E456" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
@@ -16993,22 +16996,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>665</v>
+        <v>725</v>
       </c>
       <c r="D457" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E457" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>666</v>
+        <v>726</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
@@ -17017,22 +17020,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="D458" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E458" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
@@ -17041,22 +17044,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D459" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E459" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
@@ -17065,22 +17068,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D460" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E460" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>917</v>
+        <v>614</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
@@ -17089,22 +17092,22 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D461" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E461" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>626</v>
+        <v>917</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
@@ -17113,97 +17116,100 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>641</v>
+        <v>916</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>940</v>
+        <v>624</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>941</v>
+        <v>625</v>
       </c>
       <c r="D462" s="4">
-        <v>4301135760</v>
+        <v>4301071039</v>
       </c>
       <c r="E462" s="3">
-        <v>4620207491010</v>
+        <v>4607111039279</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>942</v>
+        <v>626</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>734</v>
+        <v>641</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>732</v>
+        <v>940</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>733</v>
+        <v>941</v>
       </c>
       <c r="D463" s="4">
-        <v>4301132190</v>
+        <v>4301135760</v>
       </c>
       <c r="E463" s="3">
-        <v>4607111036537</v>
+        <v>4620207491010</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>734</v>
+        <v>942</v>
       </c>
       <c r="G463" s="1"/>
       <c r="H463" s="16" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>921</v>
+        <v>734</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>922</v>
+        <v>732</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>923</v>
+        <v>733</v>
       </c>
       <c r="D464" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E464" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>921</v>
+        <v>734</v>
       </c>
       <c r="G464" s="1"/>
+      <c r="H464" s="16" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D465" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E465" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>925</v>
@@ -17224,28 +17230,28 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D467" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E467" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>928</v>
@@ -17266,91 +17272,91 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D469" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E469" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="G469" s="1"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B470" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="C469" s="3" t="s">
+      <c r="C470" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="D469" s="4">
+      <c r="D470" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E469" s="3">
+      <c r="E470" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F469" s="5" t="s">
+      <c r="F470" s="5" t="s">
         <v>951</v>
-      </c>
-      <c r="G469" s="1"/>
-    </row>
-    <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A470" s="10" t="s">
-        <v>953</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="D470" s="4">
-        <v>4301070962</v>
-      </c>
-      <c r="E470" s="3">
-        <v>4607111038609</v>
-      </c>
-      <c r="F470" s="5" t="s">
-        <v>860</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D471" s="4">
-        <v>4301070959</v>
+        <v>4301070962</v>
       </c>
       <c r="E471" s="3">
-        <v>4607111038616</v>
+        <v>4607111038609</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>957</v>
+        <v>855</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>958</v>
+        <v>856</v>
       </c>
       <c r="D472" s="4">
-        <v>4301071075</v>
+        <v>4301070959</v>
       </c>
       <c r="E472" s="3">
-        <v>4620207491102</v>
+        <v>4607111038616</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>959</v>
+        <v>857</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>957</v>
@@ -17369,807 +17375,807 @@
       </c>
       <c r="G473" s="1"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>722</v>
+        <v>956</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>720</v>
+        <v>957</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>721</v>
+        <v>958</v>
       </c>
       <c r="D474" s="4">
-        <v>4301135574</v>
+        <v>4301071075</v>
       </c>
       <c r="E474" s="3">
-        <v>4607111033659</v>
+        <v>4620207491102</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>722</v>
+        <v>959</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="D475" s="4">
-        <v>4301135550</v>
+        <v>4301135574</v>
       </c>
       <c r="E475" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>951</v>
+        <v>740</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>949</v>
+        <v>738</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>950</v>
+        <v>739</v>
       </c>
       <c r="D476" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E476" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>951</v>
+        <v>740</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>876</v>
+        <v>950</v>
       </c>
       <c r="D477" s="4">
-        <v>4301131046</v>
+        <v>4301135753</v>
       </c>
       <c r="E477" s="3">
-        <v>4607111034137</v>
+        <v>4620207490914</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>777</v>
+        <v>875</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>778</v>
+        <v>876</v>
       </c>
       <c r="D478" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E478" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>779</v>
+        <v>877</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="D479" s="4">
-        <v>4301132188</v>
+        <v>4301131047</v>
       </c>
       <c r="E479" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>867</v>
+        <v>757</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>865</v>
+        <v>755</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="D480" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E480" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>867</v>
+        <v>757</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>697</v>
+        <v>867</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>695</v>
+        <v>865</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>696</v>
+        <v>866</v>
       </c>
       <c r="D481" s="4">
-        <v>4301135570</v>
+        <v>4301132179</v>
       </c>
       <c r="E481" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>697</v>
+        <v>867</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>917</v>
+        <v>697</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="D482" s="4">
-        <v>4301071049</v>
+        <v>4301135570</v>
       </c>
       <c r="E482" s="3">
-        <v>4607111039293</v>
+        <v>4607111035806</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>917</v>
+        <v>697</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>652</v>
+        <v>917</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="D483" s="4">
-        <v>4301135555</v>
+        <v>4301071049</v>
       </c>
       <c r="E483" s="3">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>652</v>
+        <v>917</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D484" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E484" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D485" s="4">
+        <v>4301135532</v>
+      </c>
+      <c r="E485" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D486" s="4">
         <v>4301071094</v>
       </c>
-      <c r="E485" s="3">
+      <c r="E486" s="3">
         <v>4620207491140</v>
       </c>
-      <c r="F485" s="5" t="s">
+      <c r="F486" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A486" s="10" t="s">
+      <c r="G486" s="1"/>
+    </row>
+    <row r="487" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A487" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B487" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="C486" s="3" t="s">
+      <c r="C487" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="D486" s="4">
+      <c r="D487" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E486" s="3">
+      <c r="E487" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F486" s="5" t="s">
+      <c r="F487" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="G486" s="1"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="10" t="s">
-        <v>971</v>
-      </c>
-      <c r="B487" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D487" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E487" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F487" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D488" s="4">
-        <v>4301132188</v>
+        <v>4301132190</v>
       </c>
       <c r="E488" s="3">
-        <v>4607111036605</v>
+        <v>4607111036537</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="D489" s="4">
-        <v>4301071090</v>
+        <v>4301132188</v>
       </c>
       <c r="E489" s="3">
-        <v>4620207490075</v>
+        <v>4607111036605</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D490" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E490" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>664</v>
+        <v>752</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>665</v>
+        <v>753</v>
       </c>
       <c r="D491" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>720</v>
+        <v>664</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>721</v>
+        <v>665</v>
       </c>
       <c r="D492" s="4">
-        <v>4301135574</v>
+        <v>4301071044</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111033659</v>
+        <v>4607111039385</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>722</v>
+        <v>666</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
       <c r="D493" s="4">
-        <v>4301131047</v>
+        <v>4301135574</v>
       </c>
       <c r="E493" s="3">
-        <v>4607111034120</v>
+        <v>4607111033659</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>779</v>
+        <v>722</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>875</v>
+        <v>777</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>876</v>
+        <v>778</v>
       </c>
       <c r="D494" s="4">
-        <v>4301131046</v>
+        <v>4301131047</v>
       </c>
       <c r="E494" s="3">
-        <v>4607111034137</v>
+        <v>4607111034120</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>877</v>
+        <v>779</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>933</v>
+        <v>875</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>934</v>
+        <v>876</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135793</v>
+        <v>4301131046</v>
       </c>
       <c r="E495" s="3">
-        <v>4620207491003</v>
+        <v>4607111034137</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>935</v>
+        <v>877</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D496" s="4">
-        <v>4301135760</v>
+        <v>4301135793</v>
       </c>
       <c r="E496" s="3">
-        <v>4620207491010</v>
+        <v>4620207491003</v>
       </c>
       <c r="F496" s="5" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="G496" s="1"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>181</v>
+        <v>940</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>522</v>
+        <v>941</v>
       </c>
       <c r="D497" s="4">
-        <v>4301135285</v>
+        <v>4301135760</v>
       </c>
       <c r="E497" s="3">
-        <v>4607111036407</v>
+        <v>4620207491010</v>
       </c>
       <c r="F497" s="5" t="s">
-        <v>182</v>
+        <v>942</v>
       </c>
       <c r="G497" s="1"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D498" s="4">
-        <v>4301136070</v>
+        <v>4301135285</v>
       </c>
       <c r="E498" s="3">
-        <v>4607025784012</v>
+        <v>4607111036407</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>612</v>
+        <v>165</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="D499" s="4">
-        <v>4301071051</v>
+        <v>4301136070</v>
       </c>
       <c r="E499" s="3">
-        <v>4607111039262</v>
+        <v>4607025784012</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>614</v>
+        <v>166</v>
       </c>
       <c r="G499" s="1"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D500" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E500" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D501" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E501" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>917</v>
+        <v>618</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D502" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E502" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>626</v>
+        <v>917</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="D503" s="4">
-        <v>4301135555</v>
+        <v>4301071039</v>
       </c>
       <c r="E503" s="3">
-        <v>4607111034014</v>
+        <v>4607111039279</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D504" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E504" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>738</v>
+        <v>647</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>739</v>
+        <v>648</v>
       </c>
       <c r="D505" s="4">
-        <v>4301135550</v>
+        <v>4301135532</v>
       </c>
       <c r="E505" s="3">
-        <v>4607111034199</v>
+        <v>4607111033994</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>740</v>
+        <v>649</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>949</v>
+        <v>738</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>950</v>
+        <v>739</v>
       </c>
       <c r="D506" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E506" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>951</v>
+        <v>740</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>695</v>
+        <v>949</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>696</v>
+        <v>950</v>
       </c>
       <c r="D507" s="4">
-        <v>4301135570</v>
+        <v>4301135753</v>
       </c>
       <c r="E507" s="3">
-        <v>4607111035806</v>
+        <v>4620207490914</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>697</v>
+        <v>951</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>865</v>
+        <v>695</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>866</v>
+        <v>696</v>
       </c>
       <c r="D508" s="4">
-        <v>4301132179</v>
+        <v>4301135570</v>
       </c>
       <c r="E508" s="3">
-        <v>4607111035691</v>
+        <v>4607111035806</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>867</v>
+        <v>697</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>235</v>
+        <v>865</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>995</v>
+        <v>866</v>
       </c>
       <c r="D509" s="4">
-        <v>4301071063</v>
+        <v>4301132179</v>
       </c>
       <c r="E509" s="3">
-        <v>4607111039019</v>
+        <v>4607111035691</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>996</v>
+        <v>867</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>492</v>
+        <v>235</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>493</v>
+        <v>995</v>
       </c>
       <c r="D510" s="4">
-        <v>4301071000</v>
+        <v>4301071063</v>
       </c>
       <c r="E510" s="3">
-        <v>4607111038708</v>
+        <v>4607111039019</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>494</v>
+        <v>996</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>998</v>
+        <v>492</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>999</v>
+        <v>493</v>
       </c>
       <c r="D511" s="4">
-        <v>4301135692</v>
+        <v>4301071000</v>
       </c>
       <c r="E511" s="3">
-        <v>4620207490570</v>
+        <v>4607111038708</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>997</v>
+        <v>494</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>998</v>
@@ -18189,47 +18195,44 @@
       <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A513" s="17" t="s">
-        <v>788</v>
-      </c>
-      <c r="B513" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C513" s="18" t="s">
-        <v>617</v>
-      </c>
-      <c r="D513" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E513" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F513" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="G513" s="21"/>
-      <c r="H513" s="22" t="s">
-        <v>849</v>
-      </c>
+      <c r="A513" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D513" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E513" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="G513" s="1"/>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>106</v>
+        <v>616</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>257</v>
+        <v>617</v>
       </c>
       <c r="D514" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>258</v>
+        <v>618</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18238,22 +18241,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>624</v>
+        <v>106</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>625</v>
+        <v>257</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>626</v>
+        <v>258</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18262,22 +18265,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D516" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18286,22 +18289,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="D517" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E517" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18310,22 +18313,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>520</v>
+        <v>290</v>
       </c>
       <c r="D518" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E518" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18334,22 +18337,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D519" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E519" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>300</v>
+        <v>793</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18358,22 +18361,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B520" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C520" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D520" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E520" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F520" s="20" t="s">
-        <v>316</v>
+        <v>794</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D520" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E520" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18382,22 +18385,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B521" s="18" t="s">
-        <v>549</v>
+        <v>314</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>550</v>
+        <v>315</v>
       </c>
       <c r="D521" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E521" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>551</v>
+        <v>316</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18406,70 +18409,70 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="D522" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E522" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F522" s="5" t="s">
-        <v>942</v>
+        <v>796</v>
+      </c>
+      <c r="B522" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C522" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D522" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E522" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F522" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="16" t="s">
-        <v>936</v>
+      <c r="H522" s="22" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B523" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C523" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="D523" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E523" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F523" s="20" t="s">
-        <v>628</v>
+        <v>797</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D523" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E523" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>942</v>
       </c>
       <c r="G523" s="21"/>
-      <c r="H523" s="22" t="s">
-        <v>849</v>
+      <c r="H523" s="16" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>620</v>
+        <v>110</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D524" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18478,22 +18481,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B525" s="18" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="C525" s="18" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="D525" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E525" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F525" s="20" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18502,22 +18505,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>801</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D526" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E526" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F526" s="5" t="s">
-        <v>652</v>
+        <v>800</v>
+      </c>
+      <c r="B526" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C526" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D526" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E526" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F526" s="20" t="s">
+        <v>649</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18526,70 +18529,70 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>933</v>
+        <v>650</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>934</v>
+        <v>651</v>
       </c>
       <c r="D527" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E527" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>935</v>
+        <v>652</v>
       </c>
       <c r="G527" s="21"/>
-      <c r="H527" s="16" t="s">
-        <v>936</v>
+      <c r="H527" s="22" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>378</v>
+        <v>933</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>379</v>
+        <v>934</v>
       </c>
       <c r="D528" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E528" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>380</v>
+        <v>935</v>
       </c>
       <c r="G528" s="21"/>
-      <c r="H528" s="22" t="s">
-        <v>849</v>
+      <c r="H528" s="16" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>545</v>
+        <v>378</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="D529" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E529" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F529" s="5" t="s">
-        <v>547</v>
+        <v>380</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18598,22 +18601,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B530" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="C530" s="18" t="s">
-        <v>596</v>
-      </c>
-      <c r="D530" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E530" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F530" s="20" t="s">
-        <v>597</v>
+        <v>804</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D530" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E530" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18622,22 +18625,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>850</v>
+        <v>595</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>851</v>
+        <v>596</v>
       </c>
       <c r="D531" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E531" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18646,22 +18649,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B532" s="18" t="s">
-        <v>160</v>
+        <v>850</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>630</v>
+        <v>851</v>
       </c>
       <c r="D532" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E532" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F532" s="20" t="s">
-        <v>631</v>
+        <v>421</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18670,22 +18673,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D533" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E533" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F533" s="5" t="s">
-        <v>297</v>
+        <v>807</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="D533" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E533" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F533" s="20" t="s">
+        <v>631</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18694,22 +18697,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1005</v>
+        <v>295</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1006</v>
+        <v>296</v>
       </c>
       <c r="D534" s="4">
-        <v>4301071109</v>
+        <v>4301136051</v>
       </c>
       <c r="E534" s="3">
-        <v>4607111035929</v>
+        <v>4640242180304</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>1007</v>
+        <v>297</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18718,22 +18721,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>738</v>
+        <v>1005</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>739</v>
+        <v>1006</v>
       </c>
       <c r="D535" s="4">
-        <v>4301135550</v>
+        <v>4301071109</v>
       </c>
       <c r="E535" s="3">
-        <v>4607111034199</v>
+        <v>4607111035929</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>740</v>
+        <v>1007</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18742,22 +18745,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B536" s="18" t="s">
-        <v>735</v>
-      </c>
-      <c r="C536" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="D536" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E536" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F536" s="20" t="s">
-        <v>737</v>
+        <v>810</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D536" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E536" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>740</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18766,22 +18769,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>608</v>
+        <v>735</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>609</v>
+        <v>736</v>
       </c>
       <c r="D537" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E537" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>610</v>
+        <v>737</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18790,22 +18793,22 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="D538" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E538" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F538" s="5" t="s">
-        <v>779</v>
+        <v>812</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C538" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="D538" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E538" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F538" s="20" t="s">
+        <v>610</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
@@ -18814,70 +18817,70 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>896</v>
+        <v>777</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>897</v>
+        <v>778</v>
       </c>
       <c r="D539" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E539" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>898</v>
+        <v>779</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>955</v>
+        <v>849</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B540" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="C540" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="D540" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E540" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F540" s="20" t="s">
-        <v>555</v>
+        <v>814</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D540" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E540" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>898</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
-        <v>849</v>
+        <v>955</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B541" s="18" t="s">
-        <v>702</v>
+        <v>553</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>703</v>
+        <v>554</v>
       </c>
       <c r="D541" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E541" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F541" s="20" t="s">
-        <v>701</v>
+        <v>555</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18886,22 +18889,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="D542" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E542" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F542" s="5" t="s">
-        <v>877</v>
+        <v>816</v>
+      </c>
+      <c r="B542" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="C542" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="D542" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E542" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F542" s="20" t="s">
+        <v>701</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18910,22 +18913,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D543" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E543" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18934,22 +18937,22 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>949</v>
+        <v>881</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>950</v>
+        <v>882</v>
       </c>
       <c r="D544" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E544" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>951</v>
+        <v>883</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18958,70 +18961,70 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="D545" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E545" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="G545" s="21"/>
-      <c r="H545" s="16" t="s">
-        <v>943</v>
+      <c r="H545" s="22" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>865</v>
+        <v>937</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="D546" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E546" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>867</v>
+        <v>939</v>
       </c>
       <c r="G546" s="21"/>
-      <c r="H546" s="22" t="s">
-        <v>849</v>
+      <c r="H546" s="16" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>732</v>
+        <v>865</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>733</v>
+        <v>866</v>
       </c>
       <c r="D547" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E547" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>734</v>
+        <v>867</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19030,22 +19033,22 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B548" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C548" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="D548" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E548" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F548" s="20" t="s">
-        <v>373</v>
+        <v>822</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D548" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E548" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19054,22 +19057,22 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="D549" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E549" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F549" s="5" t="s">
-        <v>886</v>
+        <v>823</v>
+      </c>
+      <c r="B549" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C549" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D549" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E549" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F549" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="22" t="s">
@@ -19078,70 +19081,70 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D550" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E550" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="G550" s="21"/>
+      <c r="H550" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
         <v>825</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B551" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C551" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="D550" s="4">
+      <c r="D551" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E550" s="3">
+      <c r="E551" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F550" s="5" t="s">
+      <c r="F551" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="16" t="s">
+      <c r="G551" s="21"/>
+      <c r="H551" s="16" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
+    <row r="552" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A552" s="17" t="s">
         <v>827</v>
       </c>
-      <c r="B551" s="18" t="s">
+      <c r="B552" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="C551" s="18" t="s">
+      <c r="C552" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D551" s="19">
+      <c r="D552" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E551" s="18">
+      <c r="E552" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F551" s="20" t="s">
+      <c r="F552" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="G551" s="21"/>
-      <c r="H551" s="22" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B552" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D552" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E552" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F552" s="20" t="s">
-        <v>363</v>
       </c>
       <c r="G552" s="21"/>
       <c r="H552" s="22" t="s">
@@ -19149,71 +19152,71 @@
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="10" t="s">
+      <c r="A553" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D553" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E553" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F553" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G553" s="21"/>
+      <c r="H553" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="10" t="s">
         <v>893</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B554" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="C554" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="D553" s="4">
+      <c r="D554" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E553" s="3">
+      <c r="E554" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F553" s="5" t="s">
+      <c r="F554" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G553" s="1"/>
-      <c r="H553" s="16" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B554" s="18" t="s">
-        <v>852</v>
-      </c>
-      <c r="C554" s="18" t="s">
-        <v>853</v>
-      </c>
-      <c r="D554" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E554" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F554" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="G554" s="21"/>
-      <c r="H554" s="22" t="s">
+      <c r="G554" s="1"/>
+      <c r="H554" s="16" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301071107</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111035905</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>1012</v>
+        <v>829</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301070990</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111038494</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>854</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19222,22 +19225,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="D556" s="4">
-        <v>4301135549</v>
+        <v>4301071107</v>
       </c>
       <c r="E556" s="3">
-        <v>4607111039095</v>
+        <v>4607111035905</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>548</v>
+        <v>1012</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19246,22 +19249,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B557" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C557" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="D557" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E557" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F557" s="20" t="s">
-        <v>182</v>
+        <v>831</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D557" s="4">
+        <v>4301135549</v>
+      </c>
+      <c r="E557" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19270,22 +19273,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="D558" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E558" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F558" s="5" t="s">
-        <v>708</v>
+        <v>832</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C558" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="D558" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E558" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19294,22 +19297,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B559" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C559" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D559" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E559" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F559" s="20" t="s">
-        <v>127</v>
+        <v>708</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D559" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E559" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19318,22 +19321,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D560" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E560" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F560" s="5" t="s">
-        <v>722</v>
+        <v>833</v>
+      </c>
+      <c r="B560" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C560" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D560" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E560" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F560" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19342,22 +19345,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B561" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="C561" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="D561" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E561" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F561" s="20" t="s">
-        <v>666</v>
+        <v>834</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D561" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E561" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19366,22 +19369,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="D562" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E562" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19390,22 +19393,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>177</v>
+        <v>681</v>
       </c>
       <c r="C563" s="18" t="s">
-        <v>178</v>
+        <v>682</v>
       </c>
       <c r="D563" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E563" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F563" s="20" t="s">
-        <v>179</v>
+        <v>683</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19414,22 +19417,22 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C564" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D564" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E564" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F564" s="5" t="s">
-        <v>166</v>
+        <v>837</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C564" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D564" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E564" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F564" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
@@ -19438,46 +19441,46 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="B565" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="C565" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D565" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E565" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F565" s="20" t="s">
-        <v>606</v>
+        <v>838</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D565" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E565" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>855</v>
+        <v>604</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>856</v>
+        <v>605</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>857</v>
+        <v>606</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
@@ -19486,46 +19489,46 @@
     </row>
     <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>250</v>
+        <v>858</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>251</v>
+        <v>859</v>
       </c>
       <c r="D568" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>150</v>
+        <v>860</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19534,22 +19537,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>695</v>
+        <v>250</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>696</v>
+        <v>251</v>
       </c>
       <c r="D569" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>697</v>
+        <v>150</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19558,22 +19561,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19582,22 +19585,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="D571" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19606,22 +19609,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>479</v>
+        <v>668</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>480</v>
+        <v>669</v>
       </c>
       <c r="D572" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>481</v>
+        <v>670</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19630,22 +19633,22 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>586</v>
+        <v>479</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>587</v>
+        <v>480</v>
       </c>
       <c r="D573" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>588</v>
+        <v>481</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
@@ -19654,32 +19657,56 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B574" s="18" t="s">
-        <v>336</v>
+        <v>586</v>
       </c>
       <c r="C574" s="18" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="D574" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E574" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F574" s="20" t="s">
-        <v>557</v>
+        <v>588</v>
       </c>
       <c r="G574" s="21"/>
       <c r="H574" s="22" t="s">
         <v>849</v>
       </c>
     </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="B575" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C575" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D575" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E575" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F575" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="G575" s="21"/>
+      <c r="H575" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F574" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
-      <sortCondition ref="A1:A185"/>
+  <autoFilter ref="A1:F575" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F255">
+      <sortCondition ref="A1:A186"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7BCBD1-1CF3-4418-B8E8-A013F51D54DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B67AC7-BEA0-4632-B410-60EE6F2B5C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1015">
   <si>
     <t>1С</t>
   </si>
@@ -3050,12 +3050,6 @@
     <t>Готовые чебупели сочные с мясом ТМ Горячая штучка флоу-пак 0,48 кг XXL  Поком</t>
   </si>
   <si>
-    <t>SU003384</t>
-  </si>
-  <si>
-    <t>P004205</t>
-  </si>
-  <si>
     <t>SU003975</t>
   </si>
   <si>
@@ -3081,6 +3075,15 @@
   </si>
   <si>
     <t>Наггетсы Нагетосы Сочная курочка со сметаной и зеленью ТМ Горячая штучка флоу-пак 0,25 кг  Поком</t>
+  </si>
+  <si>
+    <t>SU003944</t>
+  </si>
+  <si>
+    <t>P005058</t>
+  </si>
+  <si>
+    <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -6340,7 +6343,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,7 +9038,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>755</v>
@@ -11051,10 +11054,10 @@
         <v>109</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11063,7 +11066,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11075,10 +11078,10 @@
         <v>88</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D196" s="4">
         <v>4301071109</v>
@@ -11087,7 +11090,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -11099,10 +11102,10 @@
         <v>151</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D197" s="4">
         <v>4301071107</v>
@@ -11111,7 +11114,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G197" s="1">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -11123,10 +11126,10 @@
         <v>768</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D198" s="4">
         <v>4301071107</v>
@@ -11135,7 +11138,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G198" s="1">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -11147,10 +11150,10 @@
         <v>152</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D199" s="4">
         <v>4301071107</v>
@@ -11159,7 +11162,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G199" s="1">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -14834,19 +14837,19 @@
         <v>574</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="D356" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E356" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>548</v>
+        <v>1014</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14855,19 +14858,19 @@
         <v>761</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="D357" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E357" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>548</v>
+        <v>1014</v>
       </c>
       <c r="G357" s="1"/>
     </row>
@@ -14876,19 +14879,19 @@
         <v>548</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="D358" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E358" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>548</v>
+        <v>1014</v>
       </c>
       <c r="G358" s="1"/>
     </row>
@@ -16670,10 +16673,10 @@
         <v>880</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16693,10 +16696,10 @@
         <v>891</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -16716,10 +16719,10 @@
         <v>892</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D444" s="4">
         <v>4301135826</v>
@@ -16739,10 +16742,10 @@
         <v>871</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D445" s="4">
         <v>4301135826</v>
@@ -18724,10 +18727,10 @@
         <v>809</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D535" s="4">
         <v>4301071109</v>
@@ -18736,7 +18739,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -19228,10 +19231,10 @@
         <v>830</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D556" s="4">
         <v>4301071107</v>
@@ -19240,7 +19243,7 @@
         <v>4607111035905</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19252,19 +19255,19 @@
         <v>831</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="D557" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E557" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>548</v>
+        <v>1014</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B67AC7-BEA0-4632-B410-60EE6F2B5C3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C634A0B-575E-4B8E-8A56-C715846C2128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3065,15 +3065,6 @@
     <t>P005065</t>
   </si>
   <si>
-    <t>SU003973</t>
-  </si>
-  <si>
-    <t>P005105</t>
-  </si>
-  <si>
-    <t>Пельмени «Отборные с говядиной» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
-  </si>
-  <si>
     <t>Наггетсы Нагетосы Сочная курочка со сметаной и зеленью ТМ Горячая штучка флоу-пак 0,25 кг  Поком</t>
   </si>
   <si>
@@ -3084,6 +3075,15 @@
   </si>
   <si>
     <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU003971</t>
+  </si>
+  <si>
+    <t>P005103</t>
+  </si>
+  <si>
+    <t>Пельмени «Отборные из говядины» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
   </si>
 </sst>
 </file>
@@ -6343,7 +6343,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>755</v>
@@ -11102,23 +11102,23 @@
         <v>151</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D197" s="4">
-        <v>4301071107</v>
+        <v>4301071105</v>
       </c>
       <c r="E197" s="3">
-        <v>4607111035905</v>
+        <v>4607111035110</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G197" s="1">
+        <v>1014</v>
+      </c>
+      <c r="G197" s="1" t="e">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -11126,23 +11126,23 @@
         <v>768</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D198" s="4">
-        <v>4301071107</v>
+        <v>4301071105</v>
       </c>
       <c r="E198" s="3">
-        <v>4607111035905</v>
+        <v>4607111035110</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G198" s="1">
+        <v>1014</v>
+      </c>
+      <c r="G198" s="1" t="e">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -11150,23 +11150,23 @@
         <v>152</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D199" s="4">
-        <v>4301071107</v>
+        <v>4301071105</v>
       </c>
       <c r="E199" s="3">
-        <v>4607111035905</v>
+        <v>4607111035110</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G199" s="1">
+        <v>1014</v>
+      </c>
+      <c r="G199" s="1" t="e">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -14837,10 +14837,10 @@
         <v>574</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D356" s="4">
         <v>4301135824</v>
@@ -14849,7 +14849,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14858,10 +14858,10 @@
         <v>761</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D357" s="4">
         <v>4301135824</v>
@@ -14870,7 +14870,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G357" s="1"/>
     </row>
@@ -14879,10 +14879,10 @@
         <v>548</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D358" s="4">
         <v>4301135824</v>
@@ -14891,7 +14891,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G358" s="1"/>
     </row>
@@ -19231,19 +19231,19 @@
         <v>830</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="D556" s="4">
-        <v>4301071107</v>
+        <v>4301071105</v>
       </c>
       <c r="E556" s="3">
-        <v>4607111035905</v>
+        <v>4607111035110</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19255,10 +19255,10 @@
         <v>831</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D557" s="4">
         <v>4301135824</v>
@@ -19267,7 +19267,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/NV_Ber/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\NV_Ber\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C634A0B-575E-4B8E-8A56-C715846C2128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713CB2D-A9C8-48A9-9CF7-F01771033077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1016">
   <si>
     <t>1С</t>
   </si>
@@ -3035,12 +3035,6 @@
     <t>Снеки «Жареные вареники с картофелем и беконом Добросельские» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
   <si>
-    <t>SU003708</t>
-  </si>
-  <si>
-    <t>P004806</t>
-  </si>
-  <si>
     <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
@@ -3084,6 +3078,15 @@
   </si>
   <si>
     <t>Пельмени «Отборные из говядины» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>SU004012</t>
+  </si>
+  <si>
+    <t>P005129</t>
+  </si>
+  <si>
+    <t>Снеки «Жареные вареники с картофелем и беконом» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
 </sst>
 </file>
@@ -9038,7 +9041,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>755</v>
@@ -11054,10 +11057,10 @@
         <v>109</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11066,7 +11069,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11078,10 +11081,10 @@
         <v>88</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D196" s="4">
         <v>4301071109</v>
@@ -11090,7 +11093,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G196" s="1">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -11102,10 +11105,10 @@
         <v>151</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D197" s="4">
         <v>4301071105</v>
@@ -11114,7 +11117,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G197" s="1" t="e">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -11126,10 +11129,10 @@
         <v>768</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D198" s="4">
         <v>4301071105</v>
@@ -11138,7 +11141,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G198" s="1" t="e">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -11150,10 +11153,10 @@
         <v>152</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D199" s="4">
         <v>4301071105</v>
@@ -11162,7 +11165,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G199" s="1" t="e">
         <f>VLOOKUP(E199,[1]Лист1!$D:$M,10,0)</f>
@@ -13048,7 +13051,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>884</v>
@@ -13144,7 +13147,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>884</v>
@@ -14837,10 +14840,10 @@
         <v>574</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D356" s="4">
         <v>4301135824</v>
@@ -14849,7 +14852,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14858,10 +14861,10 @@
         <v>761</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D357" s="4">
         <v>4301135824</v>
@@ -14870,7 +14873,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G357" s="1"/>
     </row>
@@ -14879,10 +14882,10 @@
         <v>548</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D358" s="4">
         <v>4301135824</v>
@@ -14891,7 +14894,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G358" s="1"/>
     </row>
@@ -16673,10 +16676,10 @@
         <v>880</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16696,10 +16699,10 @@
         <v>891</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -16719,10 +16722,10 @@
         <v>892</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D444" s="4">
         <v>4301135826</v>
@@ -16742,10 +16745,10 @@
         <v>871</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D445" s="4">
         <v>4301135826</v>
@@ -18178,22 +18181,22 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="D512" s="4">
-        <v>4301135692</v>
+        <v>4301135834</v>
       </c>
       <c r="E512" s="3">
-        <v>4620207490570</v>
+        <v>4620207491188</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="G512" s="1"/>
     </row>
@@ -18202,19 +18205,19 @@
         <v>997</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="D513" s="4">
-        <v>4301135692</v>
+        <v>4301135834</v>
       </c>
       <c r="E513" s="3">
-        <v>4620207490570</v>
+        <v>4620207491188</v>
       </c>
       <c r="F513" s="5" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="G513" s="1"/>
     </row>
@@ -18727,10 +18730,10 @@
         <v>809</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D535" s="4">
         <v>4301071109</v>
@@ -18739,7 +18742,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -19231,10 +19234,10 @@
         <v>830</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D556" s="4">
         <v>4301071105</v>
@@ -19243,7 +19246,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19255,10 +19258,10 @@
         <v>831</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D557" s="4">
         <v>4301135824</v>
@@ -19267,7 +19270,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
